--- a/Report/Book1.xlsx
+++ b/Report/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Major Project\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3884DFBB-F269-429C-8494-6587AEA7E4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24794A6A-2CE9-4F29-B534-719134209CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{526394E1-51BD-4BAD-8276-31717289FB82}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="186">
   <si>
     <t>Location</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Rating</t>
   </si>
   <si>
-    <t>Season</t>
-  </si>
-  <si>
     <t>Traveler Type</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Historical</t>
   </si>
   <si>
-    <t>Winter</t>
-  </si>
-  <si>
     <t>Family</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>Mehrauli</t>
   </si>
   <si>
-    <t>Summer</t>
-  </si>
-  <si>
     <t>Solo</t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <t>Nizamuddin East</t>
   </si>
   <si>
-    <t>Spring</t>
-  </si>
-  <si>
     <t>Couple</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t>Monument</t>
   </si>
   <si>
-    <t>Autumn</t>
-  </si>
-  <si>
     <t>Sightseeing</t>
   </si>
   <si>
@@ -130,9 +115,6 @@
   </si>
   <si>
     <t>Religious</t>
-  </si>
-  <si>
-    <t>All year round</t>
   </si>
   <si>
     <t>Religion</t>
@@ -665,15 +647,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC303E25-D0A4-4188-8D11-1DBDA26594DD}" name="Table2" displayName="Table2" ref="A1:I87" totalsRowShown="0">
-  <autoFilter ref="A1:I87" xr:uid="{DC303E25-D0A4-4188-8D11-1DBDA26594DD}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC303E25-D0A4-4188-8D11-1DBDA26594DD}" name="Table2" displayName="Table2" ref="A1:H87" totalsRowShown="0">
+  <autoFilter ref="A1:H87" xr:uid="{DC303E25-D0A4-4188-8D11-1DBDA26594DD}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3F60CF5C-CF6D-43A3-B8E6-38C863496060}" name="ID"/>
     <tableColumn id="2" xr3:uid="{5CEF5C71-3F02-44AD-82BD-20811D16CB01}" name="Tourist Spot Name"/>
     <tableColumn id="3" xr3:uid="{202C720D-3701-41EF-A536-DD4DB3454B8D}" name="Location"/>
     <tableColumn id="4" xr3:uid="{31C651D0-6F8D-468B-A6B3-4B79BCA5610F}" name="Category"/>
     <tableColumn id="5" xr3:uid="{0B217D51-C129-4BEC-9FB5-2FF4D7B84847}" name="Rating"/>
-    <tableColumn id="6" xr3:uid="{40BA5A6D-6E5C-4893-B4D1-4949B8B54E24}" name="Season"/>
     <tableColumn id="7" xr3:uid="{6CD49C49-1925-48D3-951E-610823041A45}" name="Traveler Type"/>
     <tableColumn id="8" xr3:uid="{5E9D5E1B-996A-44EF-A8FB-0DCF630DE852}" name="Budget"/>
     <tableColumn id="9" xr3:uid="{494AFD83-1B40-47C8-8319-03CA23C4A40F}" name="Interest"/>
@@ -979,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B56446-6CE4-42A1-876B-A2000D53FD03}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,18 +971,17 @@
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1021,2502 +1001,2241 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>4.5</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>4.2</v>
       </c>
       <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>4.7</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>4.3</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>4.8</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>4.5999999999999996</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>4.4000000000000004</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>4.5999999999999996</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>4.4000000000000004</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>4.2</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>4.7</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
       </c>
       <c r="E15">
         <v>4.5</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>4.4000000000000004</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>4.5999999999999996</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>4.7</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>4.8</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>4.0999999999999996</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>4.3</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <v>4.3</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
         <v>11</v>
       </c>
-      <c r="H23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E24">
         <v>4.2</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>4.2</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>4.5</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E27">
         <v>4.4000000000000004</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>4.0999999999999996</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E29">
         <v>4.5</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E30">
         <v>4.2</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E31">
         <v>4.5999999999999996</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E32">
         <v>4.7</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E33">
         <v>4.8</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E34">
         <v>4.2</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E36">
         <v>4.3</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E37">
         <v>4.5999999999999996</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E38">
         <v>4.0999999999999996</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E39">
         <v>4.7</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E40">
         <v>4.0999999999999996</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E41">
         <v>4.5</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E42">
         <v>4.3</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E43">
         <v>4.2</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E44">
         <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>4.4000000000000004</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E46">
         <v>4.5</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E47">
         <v>4.0999999999999996</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E48">
         <v>4.5999999999999996</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E49">
         <v>4.5</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E50">
         <v>4.3</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E51">
         <v>4.4000000000000004</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D52" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E52">
         <v>4.0999999999999996</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E53">
         <v>4.5</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E54">
         <v>4.2</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E55">
         <v>4.5999999999999996</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E56">
         <v>4.4000000000000004</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D57" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E57">
         <v>4.3</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D58" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E58">
         <v>4.5999999999999996</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E59">
         <v>4.5</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60">
         <v>4.4000000000000004</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E61">
         <v>4.2</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E62">
         <v>4.5</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D63" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E63">
         <v>4.5999999999999996</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>23</v>
-      </c>
-      <c r="I63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D64" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E64">
         <v>4.7</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>23</v>
-      </c>
-      <c r="I64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D65" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E65">
         <v>4.5</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E66">
         <v>4.4000000000000004</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E67">
         <v>4.3</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C68" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E68">
         <v>4.2</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E69">
         <v>4.5</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>23</v>
-      </c>
-      <c r="I69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E70">
         <v>4.5999999999999996</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>23</v>
-      </c>
-      <c r="I70" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E71">
         <v>4.7</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>23</v>
-      </c>
-      <c r="I71" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D72" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E72">
         <v>4.8</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
-      </c>
-      <c r="I72" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D73" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E73">
         <v>4.9000000000000004</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>23</v>
-      </c>
-      <c r="I73" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C74" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D74" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E74">
         <v>4.8</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
-      </c>
-      <c r="I74" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D75" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E75">
         <v>4.7</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>23</v>
-      </c>
-      <c r="I75" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C76" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D76" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E76">
         <v>4.5999999999999996</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>23</v>
-      </c>
-      <c r="I76" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C77" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E77">
         <v>4.5</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>23</v>
-      </c>
-      <c r="I77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D78" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E78">
         <v>4.4000000000000004</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C79" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D79" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E79">
         <v>4.3</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H79" t="s">
-        <v>18</v>
-      </c>
-      <c r="I79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C80" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D80" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E80">
         <v>4.2</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H80" t="s">
-        <v>18</v>
-      </c>
-      <c r="I80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D81" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E81">
         <v>4.0999999999999996</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H81" t="s">
-        <v>18</v>
-      </c>
-      <c r="I81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C82" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D82" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E82">
         <v>4</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H82" t="s">
-        <v>18</v>
-      </c>
-      <c r="I82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D83" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E83">
         <v>4.5</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H83" t="s">
-        <v>18</v>
-      </c>
-      <c r="I83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D84" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E84">
         <v>4.4000000000000004</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H84" t="s">
-        <v>18</v>
-      </c>
-      <c r="I84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D85" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E85">
         <v>4.3</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H85" t="s">
-        <v>18</v>
-      </c>
-      <c r="I85" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C86" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D86" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E86">
         <v>4.2</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C87" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D87" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E87">
         <v>4.0999999999999996</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
-      </c>
-      <c r="I87" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Report/Book1.xlsx
+++ b/Report/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Major Project\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24794A6A-2CE9-4F29-B534-719134209CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9AECA2-BB6A-4ADB-A529-BF2AA0ACC814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{526394E1-51BD-4BAD-8276-31717289FB82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{526394E1-51BD-4BAD-8276-31717289FB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="286">
   <si>
     <t>Location</t>
   </si>
@@ -592,6 +593,306 @@
   </si>
   <si>
     <t>Greater Kailash</t>
+  </si>
+  <si>
+    <t>Traveller Type</t>
+  </si>
+  <si>
+    <t>Nainital</t>
+  </si>
+  <si>
+    <t>Hill Station</t>
+  </si>
+  <si>
+    <t>Mussoorie</t>
+  </si>
+  <si>
+    <t>Rishikesh</t>
+  </si>
+  <si>
+    <t>Pilgrimage</t>
+  </si>
+  <si>
+    <t>Haridwar</t>
+  </si>
+  <si>
+    <t>Dehradun</t>
+  </si>
+  <si>
+    <t>Jim Corbett National Park</t>
+  </si>
+  <si>
+    <t>Valley of Flowers National Park</t>
+  </si>
+  <si>
+    <t>Chamoli</t>
+  </si>
+  <si>
+    <t>Auli</t>
+  </si>
+  <si>
+    <t>Chopta</t>
+  </si>
+  <si>
+    <t>Badrinath</t>
+  </si>
+  <si>
+    <t>Kedarnath</t>
+  </si>
+  <si>
+    <t>Gangotri</t>
+  </si>
+  <si>
+    <t>Yamunotri</t>
+  </si>
+  <si>
+    <t>Pithoragarh</t>
+  </si>
+  <si>
+    <t>Ranikhet</t>
+  </si>
+  <si>
+    <t>Almora</t>
+  </si>
+  <si>
+    <t>Mukteshwar</t>
+  </si>
+  <si>
+    <t>Bhimtal</t>
+  </si>
+  <si>
+    <t>Sattal</t>
+  </si>
+  <si>
+    <t>Binsar</t>
+  </si>
+  <si>
+    <t>Munsiyari</t>
+  </si>
+  <si>
+    <t>Lansdowne</t>
+  </si>
+  <si>
+    <t>Uttarkashi</t>
+  </si>
+  <si>
+    <t>Joshimath</t>
+  </si>
+  <si>
+    <t>Chakrata</t>
+  </si>
+  <si>
+    <t>Kausani</t>
+  </si>
+  <si>
+    <t>Bhimtal Lake</t>
+  </si>
+  <si>
+    <t>Kempty Falls</t>
+  </si>
+  <si>
+    <t>Tapovan</t>
+  </si>
+  <si>
+    <t>Hemkund Sahib</t>
+  </si>
+  <si>
+    <t>Rudraprayag</t>
+  </si>
+  <si>
+    <t>Pauri</t>
+  </si>
+  <si>
+    <t>Khirsu</t>
+  </si>
+  <si>
+    <t>Tungnath Temple</t>
+  </si>
+  <si>
+    <t>Gaumukh Glacier</t>
+  </si>
+  <si>
+    <t>Gwaldam</t>
+  </si>
+  <si>
+    <t>Kainchi Dham</t>
+  </si>
+  <si>
+    <t>Bhowali</t>
+  </si>
+  <si>
+    <t>Dhanaulti</t>
+  </si>
+  <si>
+    <t>Neelkanth Mahadev Temple</t>
+  </si>
+  <si>
+    <t>Neer Garh Waterfall</t>
+  </si>
+  <si>
+    <t>Bhulla Lake</t>
+  </si>
+  <si>
+    <t>Bhavishya Badri</t>
+  </si>
+  <si>
+    <t>Sahastradhara</t>
+  </si>
+  <si>
+    <t>Surkanda Devi Temple</t>
+  </si>
+  <si>
+    <t>Lakhamandal</t>
+  </si>
+  <si>
+    <t>Kafni Glacier</t>
+  </si>
+  <si>
+    <t>Lakshman Jhula</t>
+  </si>
+  <si>
+    <t>Rajaji National Park</t>
+  </si>
+  <si>
+    <t>Tapkeshwar Temple</t>
+  </si>
+  <si>
+    <t>Jageshwar</t>
+  </si>
+  <si>
+    <t>Tehri</t>
+  </si>
+  <si>
+    <t>Haldwani</t>
+  </si>
+  <si>
+    <t>Kanatal</t>
+  </si>
+  <si>
+    <t>Devprayag</t>
+  </si>
+  <si>
+    <t>Karnaprayag</t>
+  </si>
+  <si>
+    <t>Roorkee</t>
+  </si>
+  <si>
+    <t>Panch Kedar</t>
+  </si>
+  <si>
+    <t>Roopkund</t>
+  </si>
+  <si>
+    <t>Rani Jheel</t>
+  </si>
+  <si>
+    <t>Gomukh</t>
+  </si>
+  <si>
+    <t>Nag Tibba</t>
+  </si>
+  <si>
+    <t>Satopanth Lake</t>
+  </si>
+  <si>
+    <t>Pindari Glacier</t>
+  </si>
+  <si>
+    <t>Kunjapuri Temple</t>
+  </si>
+  <si>
+    <t>Chilla Wildlife Sanctuary</t>
+  </si>
+  <si>
+    <t>Rajpur Road</t>
+  </si>
+  <si>
+    <t>Jharipani Falls</t>
+  </si>
+  <si>
+    <t>George Everest's House</t>
+  </si>
+  <si>
+    <t>George Everest Peak</t>
+  </si>
+  <si>
+    <t>Swarg Ashram</t>
+  </si>
+  <si>
+    <t>Ganga Aarti at Triveni Ghat</t>
+  </si>
+  <si>
+    <t>Vashishta Gufa</t>
+  </si>
+  <si>
+    <t>Dronagiri</t>
+  </si>
+  <si>
+    <t>Dharali</t>
+  </si>
+  <si>
+    <t>Dayara Bugyal</t>
+  </si>
+  <si>
+    <t>Bhim Ghasutri</t>
+  </si>
+  <si>
+    <t>Normal Budget (INR)</t>
+  </si>
+  <si>
+    <t>Adventure Sports/Religious</t>
+  </si>
+  <si>
+    <t>Adventurer/Pilgrimage</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t>Natural Beauty</t>
+  </si>
+  <si>
+    <t>Hill Station/Natural Beauty</t>
+  </si>
+  <si>
+    <t>Wildlife Sanctuaries and National Parks</t>
+  </si>
+  <si>
+    <t>Wildlife Enthusiasts</t>
+  </si>
+  <si>
+    <t>Adventure Sports/Hill Station</t>
+  </si>
+  <si>
+    <t>Adventurer/Leisure</t>
+  </si>
+  <si>
+    <t>Adventure Sports/Natural Beauty</t>
+  </si>
+  <si>
+    <t>Adventure Sports</t>
+  </si>
+  <si>
+    <t>Adventurer</t>
+  </si>
+  <si>
+    <t>Religious/Adventure Sports</t>
+  </si>
+  <si>
+    <t>Pilgrimage/Adventurer</t>
+  </si>
+  <si>
+    <t>Shopping/Hill Station</t>
+  </si>
+  <si>
+    <t>Historical/Natural Beauty</t>
+  </si>
+  <si>
+    <t>Culture/Leisure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hill Station </t>
   </si>
 </sst>
 </file>
@@ -648,7 +949,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC303E25-D0A4-4188-8D11-1DBDA26594DD}" name="Table2" displayName="Table2" ref="A1:H87" totalsRowShown="0">
-  <autoFilter ref="A1:H87" xr:uid="{DC303E25-D0A4-4188-8D11-1DBDA26594DD}"/>
+  <autoFilter ref="A1:H87" xr:uid="{DC303E25-D0A4-4188-8D11-1DBDA26594DD}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="High"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3F60CF5C-CF6D-43A3-B8E6-38C863496060}" name="ID"/>
     <tableColumn id="2" xr3:uid="{5CEF5C71-3F02-44AD-82BD-20811D16CB01}" name="Tourist Spot Name"/>
@@ -658,6 +965,21 @@
     <tableColumn id="7" xr3:uid="{6CD49C49-1925-48D3-951E-610823041A45}" name="Traveler Type"/>
     <tableColumn id="8" xr3:uid="{5E9D5E1B-996A-44EF-A8FB-0DCF630DE852}" name="Budget"/>
     <tableColumn id="9" xr3:uid="{494AFD83-1B40-47C8-8319-03CA23C4A40F}" name="Interest"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C21D1940-61C6-44DA-A69D-7EC0CEA6EF55}" name="Table1" displayName="Table1" ref="A1:F82" totalsRowShown="0">
+  <autoFilter ref="A1:F82" xr:uid="{C21D1940-61C6-44DA-A69D-7EC0CEA6EF55}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0C5F86ED-09FB-4D7C-B958-3C7C53A22F7C}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{0B8F1F5F-77ED-4DB9-8B86-92E945A92E93}" name="Tourist Spot Name"/>
+    <tableColumn id="3" xr3:uid="{95A266B9-BB24-44BC-8DBC-52DE6555B4B3}" name="Category"/>
+    <tableColumn id="4" xr3:uid="{037317E7-2DAC-4272-85D8-2CB3875B83EB}" name="Rating"/>
+    <tableColumn id="5" xr3:uid="{F480AA1D-F362-4F94-947A-57488484AB53}" name="Traveller Type"/>
+    <tableColumn id="6" xr3:uid="{3251E1A8-4BA2-4E03-968E-9E06C59251A9}" name="Normal Budget (INR)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -962,7 +1284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B56446-6CE4-42A1-876B-A2000D53FD03}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -1002,7 +1324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1028,7 +1350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1080,7 +1402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1158,7 +1480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1184,7 +1506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1210,7 +1532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1236,7 +1558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1262,7 +1584,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1288,7 +1610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1340,7 +1662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1366,7 +1688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1392,7 +1714,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1418,7 +1740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1470,7 +1792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1496,7 +1818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1522,7 +1844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1548,7 +1870,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1574,7 +1896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1600,7 +1922,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1626,7 +1948,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1652,7 +1974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1678,7 +2000,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1704,7 +2026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1730,7 +2052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1756,7 +2078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1782,7 +2104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1834,7 +2156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1860,7 +2182,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1886,7 +2208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1912,7 +2234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1938,7 +2260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1964,7 +2286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1990,7 +2312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2016,7 +2338,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2042,7 +2364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2068,7 +2390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2094,7 +2416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2120,7 +2442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2146,7 +2468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2172,7 +2494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2198,7 +2520,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2224,7 +2546,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2250,7 +2572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2276,7 +2598,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2302,7 +2624,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2328,7 +2650,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2354,7 +2676,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2380,7 +2702,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2406,7 +2728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2432,7 +2754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2458,7 +2780,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2484,7 +2806,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2510,7 +2832,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2536,7 +2858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2562,7 +2884,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2666,7 +2988,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2692,7 +3014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2718,7 +3040,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2978,7 +3300,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3004,7 +3326,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3030,7 +3352,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3056,7 +3378,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3082,7 +3404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3108,7 +3430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3134,7 +3456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3160,7 +3482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3186,7 +3508,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3212,7 +3534,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3236,6 +3558,1651 @@
       </c>
       <c r="H87" t="s">
         <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF82C6-D54D-4741-87E8-046647D0E08D}">
+  <dimension ref="A1:F81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>4.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4">
+        <v>4.3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6">
+        <v>4.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8">
+        <v>4.7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9">
+        <v>4.3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10">
+        <v>4.2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12">
+        <v>4.2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16">
+        <v>4.3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17">
+        <v>3.9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19">
+        <v>4.2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20">
+        <v>4.3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F21">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D23">
+        <v>4.5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>276</v>
+      </c>
+      <c r="F23">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E24" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25">
+        <v>4.2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>270</v>
+      </c>
+      <c r="F27">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>3.9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>4.7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31">
+        <v>4.7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32">
+        <v>3.8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>4.5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36">
+        <v>4.3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E37" t="s">
+        <v>270</v>
+      </c>
+      <c r="F37">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E38" t="s">
+        <v>276</v>
+      </c>
+      <c r="F38">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39">
+        <v>4.3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>270</v>
+      </c>
+      <c r="F39">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41">
+        <v>4.2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>270</v>
+      </c>
+      <c r="F41">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42">
+        <v>4.5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" t="s">
+        <v>272</v>
+      </c>
+      <c r="D43">
+        <v>4.3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>270</v>
+      </c>
+      <c r="F43">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44">
+        <v>4.2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>270</v>
+      </c>
+      <c r="F45">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>225</v>
+      </c>
+      <c r="C46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E46" t="s">
+        <v>270</v>
+      </c>
+      <c r="F46">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" t="s">
+        <v>271</v>
+      </c>
+      <c r="D47">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E47" t="s">
+        <v>270</v>
+      </c>
+      <c r="F47">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" t="s">
+        <v>271</v>
+      </c>
+      <c r="D48">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E48" t="s">
+        <v>270</v>
+      </c>
+      <c r="F48">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" t="s">
+        <v>271</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>270</v>
+      </c>
+      <c r="F49">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50">
+        <v>4.2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>191</v>
+      </c>
+      <c r="F50">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" t="s">
+        <v>277</v>
+      </c>
+      <c r="D51">
+        <v>4.5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>276</v>
+      </c>
+      <c r="F51">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" t="s">
+        <v>271</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>270</v>
+      </c>
+      <c r="F52">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>228</v>
+      </c>
+      <c r="C53" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53">
+        <v>4.3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>270</v>
+      </c>
+      <c r="F53">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54">
+        <v>4.3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>279</v>
+      </c>
+      <c r="F54">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D55">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E55" t="s">
+        <v>276</v>
+      </c>
+      <c r="F55">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>253</v>
+      </c>
+      <c r="C56" t="s">
+        <v>277</v>
+      </c>
+      <c r="D56">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E56" t="s">
+        <v>276</v>
+      </c>
+      <c r="F56">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57">
+        <v>4.5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>276</v>
+      </c>
+      <c r="F57">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E58" t="s">
+        <v>191</v>
+      </c>
+      <c r="F58">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59" t="s">
+        <v>273</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>274</v>
+      </c>
+      <c r="F59">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" t="s">
+        <v>273</v>
+      </c>
+      <c r="D60">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E60" t="s">
+        <v>274</v>
+      </c>
+      <c r="F60">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>191</v>
+      </c>
+      <c r="F61">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" t="s">
+        <v>280</v>
+      </c>
+      <c r="D62">
+        <v>4.2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>281</v>
+      </c>
+      <c r="F62">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>229</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63">
+        <v>4.3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" t="s">
+        <v>277</v>
+      </c>
+      <c r="D64">
+        <v>4.2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>276</v>
+      </c>
+      <c r="F64">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" t="s">
+        <v>282</v>
+      </c>
+      <c r="D65">
+        <v>3.9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>270</v>
+      </c>
+      <c r="F65">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" t="s">
+        <v>278</v>
+      </c>
+      <c r="D66">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E66" t="s">
+        <v>279</v>
+      </c>
+      <c r="F66">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>258</v>
+      </c>
+      <c r="C67" t="s">
+        <v>283</v>
+      </c>
+      <c r="D67">
+        <v>4.2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>284</v>
+      </c>
+      <c r="F67">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
+        <v>191</v>
+      </c>
+      <c r="F68">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" t="s">
+        <v>278</v>
+      </c>
+      <c r="D69">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E69" t="s">
+        <v>279</v>
+      </c>
+      <c r="F69">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>259</v>
+      </c>
+      <c r="C70" t="s">
+        <v>277</v>
+      </c>
+      <c r="D70">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E70" t="s">
+        <v>276</v>
+      </c>
+      <c r="F70">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>233</v>
+      </c>
+      <c r="C71" t="s">
+        <v>278</v>
+      </c>
+      <c r="D71">
+        <v>4.2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>279</v>
+      </c>
+      <c r="F71">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>260</v>
+      </c>
+      <c r="C72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>191</v>
+      </c>
+      <c r="F72">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" t="s">
+        <v>280</v>
+      </c>
+      <c r="D73">
+        <v>4.3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>281</v>
+      </c>
+      <c r="F73">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>261</v>
+      </c>
+      <c r="C74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E74" t="s">
+        <v>191</v>
+      </c>
+      <c r="F74">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>262</v>
+      </c>
+      <c r="C75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75" t="s">
+        <v>191</v>
+      </c>
+      <c r="F75">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76">
+        <v>3.9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>263</v>
+      </c>
+      <c r="C77" t="s">
+        <v>277</v>
+      </c>
+      <c r="D77">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E77" t="s">
+        <v>276</v>
+      </c>
+      <c r="F77">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" t="s">
+        <v>272</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>270</v>
+      </c>
+      <c r="F78">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>264</v>
+      </c>
+      <c r="C79" t="s">
+        <v>271</v>
+      </c>
+      <c r="D79">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E79" t="s">
+        <v>270</v>
+      </c>
+      <c r="F79">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>265</v>
+      </c>
+      <c r="C80" t="s">
+        <v>271</v>
+      </c>
+      <c r="D80">
+        <v>4.3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>270</v>
+      </c>
+      <c r="F80">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>266</v>
+      </c>
+      <c r="C81" t="s">
+        <v>271</v>
+      </c>
+      <c r="D81">
+        <v>4.2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>270</v>
+      </c>
+      <c r="F81">
+        <v>7500</v>
       </c>
     </row>
   </sheetData>

--- a/Report/Book1.xlsx
+++ b/Report/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Major Project\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9AECA2-BB6A-4ADB-A529-BF2AA0ACC814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5064EC70-EB73-4321-B57B-BAA76B84350B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{526394E1-51BD-4BAD-8276-31717289FB82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{526394E1-51BD-4BAD-8276-31717289FB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -949,13 +949,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC303E25-D0A4-4188-8D11-1DBDA26594DD}" name="Table2" displayName="Table2" ref="A1:H87" totalsRowShown="0">
-  <autoFilter ref="A1:H87" xr:uid="{DC303E25-D0A4-4188-8D11-1DBDA26594DD}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="High"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H87" xr:uid="{DC303E25-D0A4-4188-8D11-1DBDA26594DD}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3F60CF5C-CF6D-43A3-B8E6-38C863496060}" name="ID"/>
     <tableColumn id="2" xr3:uid="{5CEF5C71-3F02-44AD-82BD-20811D16CB01}" name="Tourist Spot Name"/>
@@ -1284,15 +1278,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B56446-6CE4-42A1-876B-A2000D53FD03}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.140625" customWidth="1"/>
@@ -1324,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1350,7 +1344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1402,7 +1396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1480,7 +1474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1506,7 +1500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1532,7 +1526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1558,7 +1552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1584,7 +1578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1610,7 +1604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1662,7 +1656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1688,7 +1682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1714,7 +1708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1740,7 +1734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1792,7 +1786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1818,7 +1812,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1844,7 +1838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1870,7 +1864,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1896,7 +1890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1922,7 +1916,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1948,7 +1942,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1974,7 +1968,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2000,7 +1994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2026,7 +2020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2052,7 +2046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2078,7 +2072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2104,7 +2098,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2156,7 +2150,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2182,7 +2176,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2208,7 +2202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2234,7 +2228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2260,7 +2254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2286,7 +2280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2312,7 +2306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2338,7 +2332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2364,7 +2358,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2390,7 +2384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2416,7 +2410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2442,7 +2436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2468,7 +2462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2494,7 +2488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2520,7 +2514,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2546,7 +2540,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2572,7 +2566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2598,7 +2592,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2624,7 +2618,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2650,7 +2644,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2676,7 +2670,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2702,7 +2696,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2728,7 +2722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2754,7 +2748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2780,7 +2774,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2806,7 +2800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2832,7 +2826,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2858,7 +2852,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2884,7 +2878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2988,7 +2982,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3014,7 +3008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3040,7 +3034,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3300,7 +3294,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3326,7 +3320,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3352,7 +3346,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3378,7 +3372,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3404,7 +3398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3430,7 +3424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3456,7 +3450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3482,7 +3476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3508,7 +3502,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3534,7 +3528,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3572,7 +3566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF82C6-D54D-4741-87E8-046647D0E08D}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/Report/Book1.xlsx
+++ b/Report/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Major Project\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New folder\Major_project\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5064EC70-EB73-4321-B57B-BAA76B84350B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44EFE4A-4E47-416F-BCCE-2C9FE1AA95E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{526394E1-51BD-4BAD-8276-31717289FB82}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{526394E1-51BD-4BAD-8276-31717289FB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="291">
   <si>
     <t>Location</t>
   </si>
@@ -412,9 +412,6 @@
     <t>Lothian Road</t>
   </si>
   <si>
-    <t>Church</t>
-  </si>
-  <si>
     <t>Sacred Heart Cathedral</t>
   </si>
   <si>
@@ -893,6 +890,24 @@
   </si>
   <si>
     <t xml:space="preserve">Hill Station </t>
+  </si>
+  <si>
+    <t>place 1</t>
+  </si>
+  <si>
+    <t>place3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> place2</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>state</t>
   </si>
 </sst>
 </file>
@@ -928,13 +943,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -969,7 +991,7 @@
   <autoFilter ref="A1:F82" xr:uid="{C21D1940-61C6-44DA-A69D-7EC0CEA6EF55}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0C5F86ED-09FB-4D7C-B958-3C7C53A22F7C}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{0B8F1F5F-77ED-4DB9-8B86-92E945A92E93}" name="Tourist Spot Name"/>
+    <tableColumn id="2" xr3:uid="{0B8F1F5F-77ED-4DB9-8B86-92E945A92E93}" name="Tourist Spot Name" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{95A266B9-BB24-44BC-8DBC-52DE6555B4B3}" name="Category"/>
     <tableColumn id="4" xr3:uid="{037317E7-2DAC-4272-85D8-2CB3875B83EB}" name="Rating"/>
     <tableColumn id="5" xr3:uid="{F480AA1D-F362-4F94-947A-57488484AB53}" name="Traveller Type"/>
@@ -1276,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B56446-6CE4-42A1-876B-A2000D53FD03}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1314,7 @@
     <col min="8" max="8" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -1318,7 +1340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1344,7 +1366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1370,7 +1392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1396,7 +1418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1421,8 +1443,26 @@
       <c r="H5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>288</v>
+      </c>
+      <c r="R5" t="s">
+        <v>289</v>
+      </c>
+      <c r="S5" t="s">
+        <v>285</v>
+      </c>
+      <c r="T5" t="s">
+        <v>287</v>
+      </c>
+      <c r="U5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1448,7 +1488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1474,7 +1514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1500,7 +1540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1526,7 +1566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1552,7 +1592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1578,7 +1618,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1604,7 +1644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1630,7 +1670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1656,7 +1696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1682,7 +1722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2031,7 +2071,7 @@
         <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="E29">
         <v>4.5</v>
@@ -2233,13 +2273,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="E37">
         <v>4.5999999999999996</v>
@@ -2259,7 +2299,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
         <v>34</v>
@@ -2285,7 +2325,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
         <v>88</v>
@@ -2467,13 +2507,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
         <v>129</v>
       </c>
-      <c r="C46" t="s">
-        <v>130</v>
-      </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="E46">
         <v>4.5</v>
@@ -2493,10 +2533,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" t="s">
         <v>131</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
       </c>
       <c r="D47" t="s">
         <v>122</v>
@@ -2519,10 +2559,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" t="s">
         <v>133</v>
-      </c>
-      <c r="C48" t="s">
-        <v>134</v>
       </c>
       <c r="D48" t="s">
         <v>119</v>
@@ -2545,7 +2585,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
         <v>40</v>
@@ -2571,13 +2611,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
         <v>85</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E50">
         <v>4.3</v>
@@ -2597,7 +2637,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
         <v>34</v>
@@ -2649,7 +2689,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
         <v>34</v>
@@ -2675,13 +2715,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" t="s">
         <v>140</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>141</v>
-      </c>
-      <c r="D54" t="s">
-        <v>142</v>
       </c>
       <c r="E54">
         <v>4.2</v>
@@ -2701,13 +2741,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
         <v>85</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E55">
         <v>4.5999999999999996</v>
@@ -2753,7 +2793,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
         <v>34</v>
@@ -2779,7 +2819,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
         <v>73</v>
@@ -2805,7 +2845,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C59" t="s">
         <v>34</v>
@@ -2831,7 +2871,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C60" t="s">
         <v>34</v>
@@ -2857,7 +2897,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C61" t="s">
         <v>82</v>
@@ -2909,10 +2949,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" t="s">
         <v>150</v>
-      </c>
-      <c r="C63" t="s">
-        <v>151</v>
       </c>
       <c r="D63" t="s">
         <v>38</v>
@@ -2961,10 +3001,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" t="s">
         <v>152</v>
-      </c>
-      <c r="C65" t="s">
-        <v>153</v>
       </c>
       <c r="D65" t="s">
         <v>38</v>
@@ -2987,13 +3027,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" t="s">
         <v>154</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>155</v>
-      </c>
-      <c r="D66" t="s">
-        <v>156</v>
       </c>
       <c r="E66">
         <v>4.4000000000000004</v>
@@ -3045,7 +3085,7 @@
         <v>106</v>
       </c>
       <c r="D68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E68">
         <v>4.2</v>
@@ -3065,13 +3105,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
         <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E69">
         <v>4.5</v>
@@ -3091,13 +3131,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" t="s">
         <v>159</v>
-      </c>
-      <c r="C70" t="s">
-        <v>155</v>
-      </c>
-      <c r="D70" t="s">
-        <v>160</v>
       </c>
       <c r="E70">
         <v>4.5999999999999996</v>
@@ -3117,13 +3157,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
         <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E71">
         <v>4.7</v>
@@ -3143,13 +3183,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" t="s">
         <v>162</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>163</v>
-      </c>
-      <c r="D72" t="s">
-        <v>164</v>
       </c>
       <c r="E72">
         <v>4.8</v>
@@ -3172,10 +3212,10 @@
         <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E73">
         <v>4.9000000000000004</v>
@@ -3195,13 +3235,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" t="s">
         <v>166</v>
       </c>
-      <c r="C74" t="s">
-        <v>167</v>
-      </c>
       <c r="D74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E74">
         <v>4.8</v>
@@ -3221,13 +3261,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" t="s">
         <v>168</v>
       </c>
-      <c r="C75" t="s">
-        <v>169</v>
-      </c>
       <c r="D75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E75">
         <v>4.7</v>
@@ -3247,13 +3287,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" t="s">
         <v>170</v>
       </c>
-      <c r="C76" t="s">
-        <v>171</v>
-      </c>
       <c r="D76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E76">
         <v>4.5999999999999996</v>
@@ -3273,13 +3313,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C77" t="s">
         <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E77">
         <v>4.5</v>
@@ -3299,7 +3339,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" t="s">
         <v>34</v>
@@ -3325,10 +3365,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" t="s">
         <v>174</v>
-      </c>
-      <c r="C79" t="s">
-        <v>175</v>
       </c>
       <c r="D79" t="s">
         <v>42</v>
@@ -3351,10 +3391,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D80" t="s">
         <v>42</v>
@@ -3403,10 +3443,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" t="s">
         <v>177</v>
-      </c>
-      <c r="C82" t="s">
-        <v>178</v>
       </c>
       <c r="D82" t="s">
         <v>42</v>
@@ -3429,7 +3469,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -3455,7 +3495,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C84" t="s">
         <v>40</v>
@@ -3481,10 +3521,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D85" t="s">
         <v>42</v>
@@ -3507,13 +3547,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" t="s">
         <v>182</v>
       </c>
-      <c r="C86" t="s">
-        <v>183</v>
-      </c>
       <c r="D86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E86">
         <v>4.2</v>
@@ -3533,10 +3573,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" t="s">
         <v>184</v>
-      </c>
-      <c r="C87" t="s">
-        <v>185</v>
       </c>
       <c r="D87" t="s">
         <v>42</v>
@@ -3566,16 +3606,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF82C6-D54D-4741-87E8-046647D0E08D}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3583,7 +3623,7 @@
       <c r="A1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C1" t="s">
@@ -3593,18 +3633,18 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>192</v>
+      <c r="B2" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -3613,7 +3653,7 @@
         <v>4.5</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F2">
         <v>5000</v>
@@ -3623,17 +3663,17 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>190</v>
+      <c r="B3" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3">
         <v>4.5999999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F3">
         <v>6000</v>
@@ -3643,17 +3683,17 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>193</v>
+      <c r="B4" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4">
         <v>4.3</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F4">
         <v>7000</v>
@@ -3663,17 +3703,17 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>189</v>
+      <c r="B5" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D5">
         <v>4.4000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F5">
         <v>8000</v>
@@ -3683,37 +3723,37 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>187</v>
+      <c r="B6" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D6">
         <v>4.5</v>
       </c>
       <c r="E6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F6">
         <v>7000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>194</v>
+      <c r="B7" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D7">
         <v>4.5999999999999996</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F7">
         <v>10000</v>
@@ -3723,17 +3763,17 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>197</v>
+      <c r="B8" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8">
         <v>4.7</v>
       </c>
       <c r="E8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F8">
         <v>9000</v>
@@ -3743,17 +3783,17 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>204</v>
+      <c r="B9" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9">
         <v>4.3</v>
       </c>
       <c r="E9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F9">
         <v>8000</v>
@@ -3763,17 +3803,17 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>205</v>
+      <c r="B10" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D10">
         <v>4.2</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F10">
         <v>7500</v>
@@ -3783,17 +3823,17 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>215</v>
+      <c r="B11" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D11">
         <v>4.4000000000000004</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F11">
         <v>7000</v>
@@ -3803,17 +3843,17 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>203</v>
+      <c r="B12" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12">
         <v>4.2</v>
       </c>
       <c r="E12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F12">
         <v>7500</v>
@@ -3823,17 +3863,17 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>196</v>
+      <c r="B13" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D13">
         <v>4.0999999999999996</v>
       </c>
       <c r="E13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F13">
         <v>7000</v>
@@ -3843,8 +3883,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>220</v>
+      <c r="B14" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -3853,7 +3893,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F14">
         <v>6500</v>
@@ -3863,8 +3903,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>212</v>
+      <c r="B15" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -3873,7 +3913,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F15">
         <v>6500</v>
@@ -3883,17 +3923,17 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>241</v>
+      <c r="B16" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D16">
         <v>4.3</v>
       </c>
       <c r="E16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F16">
         <v>8000</v>
@@ -3903,17 +3943,17 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>242</v>
+      <c r="B17" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17">
         <v>3.9</v>
       </c>
       <c r="E17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F17">
         <v>6000</v>
@@ -3923,17 +3963,17 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>207</v>
+      <c r="B18" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="C18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D18">
         <v>4.0999999999999996</v>
       </c>
       <c r="E18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F18">
         <v>7000</v>
@@ -3943,17 +3983,17 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>206</v>
+      <c r="B19" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D19">
         <v>4.2</v>
       </c>
       <c r="E19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F19">
         <v>7500</v>
@@ -3963,17 +4003,17 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>209</v>
+      <c r="B20" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D20">
         <v>4.3</v>
       </c>
       <c r="E20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F20">
         <v>7500</v>
@@ -3983,8 +4023,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>201</v>
+      <c r="B21" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -3993,7 +4033,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F21">
         <v>7000</v>
@@ -4003,8 +4043,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>202</v>
+      <c r="B22" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
@@ -4013,7 +4053,7 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F22">
         <v>7000</v>
@@ -4023,37 +4063,37 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>198</v>
+      <c r="B23" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="C23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D23">
         <v>4.5</v>
       </c>
       <c r="E23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F23">
         <v>8500</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>195</v>
+      <c r="B24" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="C24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D24">
         <v>4.5999999999999996</v>
       </c>
       <c r="E24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F24">
         <v>9000</v>
@@ -4063,17 +4103,17 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>211</v>
+      <c r="B25" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D25">
         <v>4.2</v>
       </c>
       <c r="E25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F25">
         <v>7500</v>
@@ -4083,17 +4123,17 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>243</v>
+      <c r="B26" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D26">
         <v>4.0999999999999996</v>
       </c>
       <c r="E26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F26">
         <v>7000</v>
@@ -4103,17 +4143,17 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>221</v>
+      <c r="B27" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F27">
         <v>6500</v>
@@ -4123,8 +4163,8 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>244</v>
+      <c r="B28" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
@@ -4133,7 +4173,7 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F28">
         <v>6500</v>
@@ -4143,8 +4183,8 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>245</v>
+      <c r="B29" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
@@ -4153,7 +4193,7 @@
         <v>3.9</v>
       </c>
       <c r="E29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F29">
         <v>6000</v>
@@ -4163,8 +4203,8 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>200</v>
+      <c r="B30" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
@@ -4173,7 +4213,7 @@
         <v>4.7</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>9500</v>
@@ -4183,8 +4223,8 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>199</v>
+      <c r="B31" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
@@ -4193,7 +4233,7 @@
         <v>4.7</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F31">
         <v>9500</v>
@@ -4203,17 +4243,17 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>246</v>
+      <c r="B32" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D32">
         <v>3.8</v>
       </c>
       <c r="E32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F32">
         <v>5500</v>
@@ -4223,8 +4263,8 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>247</v>
+      <c r="B33" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
@@ -4233,7 +4273,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F33">
         <v>9000</v>
@@ -4243,8 +4283,8 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>223</v>
+      <c r="B34" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
@@ -4253,7 +4293,7 @@
         <v>4.5</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F34">
         <v>8500</v>
@@ -4263,8 +4303,8 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>219</v>
+      <c r="B35" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
@@ -4273,7 +4313,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F35">
         <v>9000</v>
@@ -4283,8 +4323,8 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>213</v>
+      <c r="B36" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
@@ -4293,7 +4333,7 @@
         <v>4.3</v>
       </c>
       <c r="E36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F36">
         <v>8000</v>
@@ -4303,17 +4343,17 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>207</v>
+      <c r="B37" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="C37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D37">
         <v>4.0999999999999996</v>
       </c>
       <c r="E37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F37">
         <v>7000</v>
@@ -4323,17 +4363,17 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>248</v>
+      <c r="B38" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="C38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D38">
         <v>4.4000000000000004</v>
       </c>
       <c r="E38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F38">
         <v>8500</v>
@@ -4343,17 +4383,17 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>214</v>
+      <c r="B39" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="C39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D39">
         <v>4.3</v>
       </c>
       <c r="E39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F39">
         <v>8000</v>
@@ -4363,8 +4403,8 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>232</v>
+      <c r="B40" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="C40" t="s">
         <v>26</v>
@@ -4373,7 +4413,7 @@
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F40">
         <v>7000</v>
@@ -4383,17 +4423,17 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>208</v>
+      <c r="B41" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="C41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D41">
         <v>4.2</v>
       </c>
       <c r="E41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F41">
         <v>7500</v>
@@ -4403,17 +4443,17 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>210</v>
+      <c r="B42" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="C42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D42">
         <v>4.5</v>
       </c>
       <c r="E42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F42">
         <v>8500</v>
@@ -4423,17 +4463,17 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>214</v>
+      <c r="B43" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="C43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D43">
         <v>4.3</v>
       </c>
       <c r="E43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F43">
         <v>8000</v>
@@ -4443,8 +4483,8 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>240</v>
+      <c r="B44" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="C44" t="s">
         <v>26</v>
@@ -4453,7 +4493,7 @@
         <v>4.2</v>
       </c>
       <c r="E44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F44">
         <v>7500</v>
@@ -4463,17 +4503,17 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>227</v>
+      <c r="B45" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D45">
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F45">
         <v>6500</v>
@@ -4483,17 +4523,17 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>225</v>
+      <c r="B46" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D46">
         <v>4.0999999999999996</v>
       </c>
       <c r="E46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F46">
         <v>7000</v>
@@ -4503,17 +4543,17 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>236</v>
+      <c r="B47" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="C47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D47">
         <v>4.4000000000000004</v>
       </c>
       <c r="E47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F47">
         <v>8500</v>
@@ -4523,17 +4563,17 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>216</v>
+      <c r="B48" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="C48" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D48">
         <v>4.0999999999999996</v>
       </c>
       <c r="E48" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F48">
         <v>7000</v>
@@ -4543,17 +4583,17 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>249</v>
+      <c r="B49" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="C49" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D49">
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F49">
         <v>6500</v>
@@ -4563,8 +4603,8 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>226</v>
+      <c r="B50" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="C50" t="s">
         <v>26</v>
@@ -4573,7 +4613,7 @@
         <v>4.2</v>
       </c>
       <c r="E50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F50">
         <v>7500</v>
@@ -4583,17 +4623,17 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>250</v>
+      <c r="B51" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="C51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D51">
         <v>4.5</v>
       </c>
       <c r="E51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F51">
         <v>8500</v>
@@ -4603,17 +4643,17 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>231</v>
+      <c r="B52" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="C52" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F52">
         <v>6500</v>
@@ -4623,17 +4663,17 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>228</v>
+      <c r="B53" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D53">
         <v>4.3</v>
       </c>
       <c r="E53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F53">
         <v>8000</v>
@@ -4643,17 +4683,17 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>251</v>
+      <c r="B54" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="C54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D54">
         <v>4.3</v>
       </c>
       <c r="E54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F54">
         <v>8000</v>
@@ -4663,17 +4703,17 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>252</v>
+      <c r="B55" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="C55" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D55">
         <v>4.5999999999999996</v>
       </c>
       <c r="E55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F55">
         <v>9000</v>
@@ -4683,17 +4723,17 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>253</v>
+      <c r="B56" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="C56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D56">
         <v>4.4000000000000004</v>
       </c>
       <c r="E56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F56">
         <v>8500</v>
@@ -4703,17 +4743,17 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>224</v>
+      <c r="B57" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="C57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D57">
         <v>4.5</v>
       </c>
       <c r="E57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F57">
         <v>8500</v>
@@ -4723,8 +4763,8 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>254</v>
+      <c r="B58" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="C58" t="s">
         <v>26</v>
@@ -4733,27 +4773,27 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F58">
         <v>7000</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>255</v>
+      <c r="B59" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="C59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D59">
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F59">
         <v>6500</v>
@@ -4763,17 +4803,17 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>238</v>
+      <c r="B60" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="C60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D60">
         <v>4.0999999999999996</v>
       </c>
       <c r="E60" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F60">
         <v>7000</v>
@@ -4783,8 +4823,8 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>239</v>
+      <c r="B61" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="C61" t="s">
         <v>26</v>
@@ -4793,7 +4833,7 @@
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F61">
         <v>6500</v>
@@ -4803,28 +4843,28 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>237</v>
+      <c r="B62" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="C62" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D62">
         <v>4.2</v>
       </c>
       <c r="E62" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F62">
         <v>7500</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>229</v>
+      <c r="B63" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="C63" t="s">
         <v>26</v>
@@ -4833,7 +4873,7 @@
         <v>4.3</v>
       </c>
       <c r="E63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F63">
         <v>8000</v>
@@ -4843,17 +4883,17 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>230</v>
+      <c r="B64" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="C64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D64">
         <v>4.2</v>
       </c>
       <c r="E64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F64">
         <v>7500</v>
@@ -4863,17 +4903,17 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>256</v>
+      <c r="B65" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="C65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D65">
         <v>3.9</v>
       </c>
       <c r="E65" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F65">
         <v>6000</v>
@@ -4883,48 +4923,48 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>257</v>
+      <c r="B66" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="C66" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D66">
         <v>4.0999999999999996</v>
       </c>
       <c r="E66" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F66">
         <v>7000</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>258</v>
+      <c r="B67" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="C67" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D67">
         <v>4.2</v>
       </c>
       <c r="E67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F67">
         <v>7500</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>234</v>
+      <c r="B68" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="C68" t="s">
         <v>26</v>
@@ -4933,7 +4973,7 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F68">
         <v>7000</v>
@@ -4943,17 +4983,17 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>217</v>
+      <c r="B69" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="C69" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D69">
         <v>4.0999999999999996</v>
       </c>
       <c r="E69" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F69">
         <v>7000</v>
@@ -4963,17 +5003,17 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>259</v>
+      <c r="B70" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="C70" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D70">
         <v>4.4000000000000004</v>
       </c>
       <c r="E70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F70">
         <v>8500</v>
@@ -4983,17 +5023,17 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>233</v>
+      <c r="B71" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="C71" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D71">
         <v>4.2</v>
       </c>
       <c r="E71" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F71">
         <v>7500</v>
@@ -5003,8 +5043,8 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>260</v>
+      <c r="B72" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="C72" t="s">
         <v>26</v>
@@ -5013,7 +5053,7 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F72">
         <v>7000</v>
@@ -5023,28 +5063,28 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>218</v>
+      <c r="B73" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="C73" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D73">
         <v>4.3</v>
       </c>
       <c r="E73" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F73">
         <v>8000</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>261</v>
+      <c r="B74" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="C74" t="s">
         <v>26</v>
@@ -5053,7 +5093,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F74">
         <v>7000</v>
@@ -5063,8 +5103,8 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>262</v>
+      <c r="B75" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="C75" t="s">
         <v>26</v>
@@ -5073,7 +5113,7 @@
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F75">
         <v>6500</v>
@@ -5083,8 +5123,8 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>235</v>
+      <c r="B76" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -5103,17 +5143,17 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>263</v>
+      <c r="B77" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="C77" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D77">
         <v>4.4000000000000004</v>
       </c>
       <c r="E77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F77">
         <v>8500</v>
@@ -5123,17 +5163,17 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>222</v>
+      <c r="B78" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="C78" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D78">
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F78">
         <v>7000</v>
@@ -5143,17 +5183,17 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>264</v>
+      <c r="B79" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="C79" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D79">
         <v>4.0999999999999996</v>
       </c>
       <c r="E79" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F79">
         <v>7500</v>
@@ -5163,17 +5203,17 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>265</v>
+      <c r="B80" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="C80" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D80">
         <v>4.3</v>
       </c>
       <c r="E80" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F80">
         <v>8000</v>
@@ -5183,17 +5223,17 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>266</v>
+      <c r="B81" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="C81" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D81">
         <v>4.2</v>
       </c>
       <c r="E81" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F81">
         <v>7500</v>

--- a/Report/Book1.xlsx
+++ b/Report/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New folder\Major_project\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44EFE4A-4E47-416F-BCCE-2C9FE1AA95E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626FC773-8948-455C-AAB5-BA911D5F94D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{526394E1-51BD-4BAD-8276-31717289FB82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{526394E1-51BD-4BAD-8276-31717289FB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="277">
   <si>
     <t>Location</t>
   </si>
@@ -103,9 +94,6 @@
     <t>Rajpath</t>
   </si>
   <si>
-    <t>Monument</t>
-  </si>
-  <si>
     <t>Sightseeing</t>
   </si>
   <si>
@@ -253,9 +241,6 @@
     <t>Mughal Gardens</t>
   </si>
   <si>
-    <t>Garden</t>
-  </si>
-  <si>
     <t>Nehru House</t>
   </si>
   <si>
@@ -295,9 +280,6 @@
     <t>Delhi Ridge</t>
   </si>
   <si>
-    <t>Forest</t>
-  </si>
-  <si>
     <t>Delhi Ridge Forest</t>
   </si>
   <si>
@@ -322,9 +304,6 @@
     <t>Cantonment Area</t>
   </si>
   <si>
-    <t>Memorial</t>
-  </si>
-  <si>
     <t>Sulabh International Museum of Toilets</t>
   </si>
   <si>
@@ -394,18 +373,12 @@
     <t>India Habitat Centre</t>
   </si>
   <si>
-    <t>Cultural Center</t>
-  </si>
-  <si>
     <t>Lodi Art District</t>
   </si>
   <si>
     <t>Lodhi Colony</t>
   </si>
   <si>
-    <t>Art Gallery</t>
-  </si>
-  <si>
     <t>St. James’ Church</t>
   </si>
   <si>
@@ -445,30 +418,15 @@
     <t>Delhi Ridge Tiger Safari</t>
   </si>
   <si>
-    <t>Wildlife Park</t>
-  </si>
-  <si>
     <t>Madame Tussauds</t>
   </si>
   <si>
     <t>Art Spice Gallery</t>
   </si>
   <si>
-    <t>Ghalib Academy</t>
-  </si>
-  <si>
-    <t>Hazrat Nizamuddin</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
     <t>Delhi Ridge Biodiversity Park</t>
   </si>
   <si>
-    <t>Nature Park</t>
-  </si>
-  <si>
     <t>Palika Bazaar</t>
   </si>
   <si>
@@ -502,21 +460,12 @@
     <t>Gurgaon</t>
   </si>
   <si>
-    <t>Wildlife Sanctuary</t>
-  </si>
-  <si>
-    <t>Amusement Park</t>
-  </si>
-  <si>
     <t>Worlds of Wonder</t>
   </si>
   <si>
     <t>Sultanpur Bird Sanctuary</t>
   </si>
   <si>
-    <t>Bird Sanctuary</t>
-  </si>
-  <si>
     <t>Okhla Bird Sanctuary</t>
   </si>
   <si>
@@ -526,9 +475,6 @@
     <t>Surajkund</t>
   </si>
   <si>
-    <t>Cultural Fair</t>
-  </si>
-  <si>
     <t>Mall</t>
   </si>
   <si>
@@ -908,6 +854,9 @@
   </si>
   <si>
     <t>state</t>
+  </si>
+  <si>
+    <t>Cultural</t>
   </si>
 </sst>
 </file>
@@ -970,8 +919,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC303E25-D0A4-4188-8D11-1DBDA26594DD}" name="Table2" displayName="Table2" ref="A1:H87" totalsRowShown="0">
-  <autoFilter ref="A1:H87" xr:uid="{DC303E25-D0A4-4188-8D11-1DBDA26594DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC303E25-D0A4-4188-8D11-1DBDA26594DD}" name="Table2" displayName="Table2" ref="A1:H86" totalsRowShown="0">
+  <autoFilter ref="A1:H86" xr:uid="{DC303E25-D0A4-4188-8D11-1DBDA26594DD}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3F60CF5C-CF6D-43A3-B8E6-38C863496060}" name="ID"/>
     <tableColumn id="2" xr3:uid="{5CEF5C71-3F02-44AD-82BD-20811D16CB01}" name="Tourist Spot Name"/>
@@ -1298,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B56446-6CE4-42A1-876B-A2000D53FD03}">
-  <dimension ref="A1:U87"/>
+  <dimension ref="A1:U86"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,10 +1265,10 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1397,7 +1346,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -1429,7 +1378,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>4.3</v>
@@ -1441,25 +1390,25 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P5" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="Q5" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="R5" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="S5" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="T5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="U5" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1467,13 +1416,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>4.8</v>
@@ -1485,7 +1434,7 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1493,13 +1442,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>4.5999999999999996</v>
@@ -1511,7 +1460,7 @@
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1519,13 +1468,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>4.4000000000000004</v>
@@ -1537,7 +1486,7 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1545,13 +1494,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -1571,13 +1520,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>4.5999999999999996</v>
@@ -1597,10 +1546,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1615,7 +1564,7 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1623,13 +1572,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -1641,7 +1590,7 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1649,13 +1598,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
       </c>
       <c r="E13">
         <v>4.2</v>
@@ -1675,13 +1624,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>4.7</v>
@@ -1701,13 +1650,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>4.5</v>
@@ -1727,13 +1676,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
       </c>
       <c r="E16">
         <v>4.4000000000000004</v>
@@ -1745,7 +1694,7 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1753,13 +1702,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17">
         <v>4.5999999999999996</v>
@@ -1779,13 +1728,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>4.7</v>
@@ -1797,7 +1746,7 @@
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1805,13 +1754,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
         <v>67</v>
       </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>4.8</v>
@@ -1823,7 +1772,7 @@
         <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1831,13 +1780,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
       </c>
       <c r="E20">
         <v>4.0999999999999996</v>
@@ -1849,7 +1798,7 @@
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1857,13 +1806,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>4.3</v>
@@ -1883,13 +1832,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -1901,7 +1850,7 @@
         <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1909,13 +1858,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <v>4.3</v>
@@ -1935,13 +1884,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>276</v>
       </c>
       <c r="E24">
         <v>4.2</v>
@@ -1953,7 +1902,7 @@
         <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1961,13 +1910,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>4.2</v>
@@ -1979,7 +1928,7 @@
         <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1987,13 +1936,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
         <v>63</v>
       </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26">
         <v>4.5</v>
@@ -2005,7 +1954,7 @@
         <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2013,13 +1962,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>255</v>
       </c>
       <c r="E27">
         <v>4.4000000000000004</v>
@@ -2031,7 +1980,7 @@
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2039,13 +1988,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
         <v>65</v>
       </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>4.0999999999999996</v>
@@ -2065,13 +2014,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>4.5</v>
@@ -2083,7 +2032,7 @@
         <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2091,13 +2040,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="E30">
         <v>4.2</v>
@@ -2109,7 +2058,7 @@
         <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2117,13 +2066,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>4.5999999999999996</v>
@@ -2135,7 +2084,7 @@
         <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2143,13 +2092,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>4.7</v>
@@ -2161,7 +2110,7 @@
         <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2169,13 +2118,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>4.8</v>
@@ -2187,7 +2136,7 @@
         <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2195,13 +2144,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34">
         <v>4.2</v>
@@ -2213,7 +2162,7 @@
         <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2221,13 +2170,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
         <v>59</v>
       </c>
-      <c r="C35" t="s">
-        <v>60</v>
-      </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -2247,13 +2196,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <v>4.3</v>
@@ -2265,7 +2214,7 @@
         <v>10</v>
       </c>
       <c r="H36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2273,13 +2222,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>4.5999999999999996</v>
@@ -2291,7 +2240,7 @@
         <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2299,13 +2248,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E38">
         <v>4.0999999999999996</v>
@@ -2317,7 +2266,7 @@
         <v>15</v>
       </c>
       <c r="H38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2325,13 +2274,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>4.7</v>
@@ -2343,7 +2292,7 @@
         <v>10</v>
       </c>
       <c r="H39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2351,13 +2300,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>4.0999999999999996</v>
@@ -2369,7 +2318,7 @@
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2377,13 +2326,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>4.5</v>
@@ -2395,7 +2344,7 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2403,13 +2352,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42">
         <v>4.3</v>
@@ -2429,13 +2378,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43">
         <v>4.2</v>
@@ -2455,13 +2404,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -2481,13 +2430,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>255</v>
       </c>
       <c r="E45">
         <v>4.4000000000000004</v>
@@ -2499,7 +2448,7 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2507,13 +2456,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E46">
         <v>4.5</v>
@@ -2525,7 +2474,7 @@
         <v>15</v>
       </c>
       <c r="H46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2533,13 +2482,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>276</v>
       </c>
       <c r="E47">
         <v>4.0999999999999996</v>
@@ -2551,7 +2500,7 @@
         <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2559,13 +2508,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="E48">
         <v>4.5999999999999996</v>
@@ -2577,7 +2526,7 @@
         <v>15</v>
       </c>
       <c r="H48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2585,13 +2534,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E49">
         <v>4.5</v>
@@ -2611,13 +2560,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="E50">
         <v>4.3</v>
@@ -2629,7 +2578,7 @@
         <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2637,13 +2586,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E51">
         <v>4.4000000000000004</v>
@@ -2655,7 +2604,7 @@
         <v>15</v>
       </c>
       <c r="H51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2663,13 +2612,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E52">
         <v>4.0999999999999996</v>
@@ -2681,7 +2630,7 @@
         <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2689,13 +2638,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>276</v>
       </c>
       <c r="E53">
         <v>4.5</v>
@@ -2707,7 +2656,7 @@
         <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2715,16 +2664,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="D54" t="s">
-        <v>141</v>
+        <v>255</v>
       </c>
       <c r="E54">
-        <v>4.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -2733,7 +2682,7 @@
         <v>15</v>
       </c>
       <c r="H54" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2741,16 +2690,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="E55">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F55" t="s">
         <v>14</v>
@@ -2759,7 +2708,7 @@
         <v>15</v>
       </c>
       <c r="H55" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2767,16 +2716,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E56">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -2785,7 +2734,7 @@
         <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2793,25 +2742,25 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D57" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E57">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2819,25 +2768,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E58">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="F58" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2845,16 +2794,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2863,7 +2812,7 @@
         <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2871,16 +2820,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E60">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -2889,7 +2838,7 @@
         <v>15</v>
       </c>
       <c r="H60" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2897,16 +2846,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E61">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
@@ -2915,7 +2864,7 @@
         <v>15</v>
       </c>
       <c r="H61" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2923,25 +2872,25 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E62">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2949,16 +2898,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E63">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -2967,7 +2916,7 @@
         <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2975,16 +2924,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E64">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -2993,7 +2942,7 @@
         <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3001,25 +2950,25 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E65">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H65" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3027,16 +2976,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="C66" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="D66" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="E66">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -3045,7 +2994,7 @@
         <v>10</v>
       </c>
       <c r="H66" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3053,16 +3002,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E67">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -3071,7 +3020,7 @@
         <v>10</v>
       </c>
       <c r="H67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3079,25 +3028,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D68" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="E68">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3105,16 +3054,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D69" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="E69">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -3123,7 +3072,7 @@
         <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3131,16 +3080,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="E70">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -3149,7 +3098,7 @@
         <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3157,16 +3106,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="E71">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -3175,7 +3124,7 @@
         <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3183,16 +3132,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E72">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
@@ -3201,7 +3150,7 @@
         <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3209,16 +3158,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D73" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E73">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -3227,7 +3176,7 @@
         <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3235,16 +3184,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D74" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E74">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
@@ -3253,7 +3202,7 @@
         <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3261,16 +3210,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D75" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E75">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -3279,7 +3228,7 @@
         <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3287,16 +3236,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E76">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -3305,7 +3254,7 @@
         <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3313,25 +3262,25 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="E77">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F77" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3339,16 +3288,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E78">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -3357,7 +3306,7 @@
         <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3365,16 +3314,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E79">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="F79" t="s">
         <v>14</v>
@@ -3383,7 +3332,7 @@
         <v>15</v>
       </c>
       <c r="H79" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3391,16 +3340,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="D80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E80">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F80" t="s">
         <v>14</v>
@@ -3409,7 +3358,7 @@
         <v>15</v>
       </c>
       <c r="H80" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3417,16 +3366,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="D81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E81">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -3443,16 +3392,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E82">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
@@ -3469,16 +3418,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="D83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E83">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
@@ -3495,16 +3444,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C84" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E84">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -3513,7 +3462,7 @@
         <v>15</v>
       </c>
       <c r="H84" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3521,25 +3470,25 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D85" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="E85">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H85" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3547,51 +3496,25 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D86" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="E86">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F86" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H86" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>183</v>
-      </c>
-      <c r="C87" t="s">
-        <v>184</v>
-      </c>
-      <c r="D87" t="s">
-        <v>42</v>
-      </c>
-      <c r="E87">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
-      <c r="H87" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3606,7 +3529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF82C6-D54D-4741-87E8-046647D0E08D}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -3621,10 +3544,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3633,10 +3556,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3644,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>4.5</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F2">
         <v>5000</v>
@@ -3664,16 +3587,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D3">
         <v>4.5999999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F3">
         <v>6000</v>
@@ -3684,16 +3607,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D4">
         <v>4.3</v>
       </c>
       <c r="E4" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F4">
         <v>7000</v>
@@ -3704,16 +3627,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D5">
         <v>4.4000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F5">
         <v>8000</v>
@@ -3724,16 +3647,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D6">
         <v>4.5</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F6">
         <v>7000</v>
@@ -3744,16 +3667,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D7">
         <v>4.5999999999999996</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="F7">
         <v>10000</v>
@@ -3764,16 +3687,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D8">
         <v>4.7</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F8">
         <v>9000</v>
@@ -3784,16 +3707,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D9">
         <v>4.3</v>
       </c>
       <c r="E9" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F9">
         <v>8000</v>
@@ -3804,16 +3727,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D10">
         <v>4.2</v>
       </c>
       <c r="E10" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F10">
         <v>7500</v>
@@ -3824,16 +3747,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D11">
         <v>4.4000000000000004</v>
       </c>
       <c r="E11" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F11">
         <v>7000</v>
@@ -3844,16 +3767,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D12">
         <v>4.2</v>
       </c>
       <c r="E12" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F12">
         <v>7500</v>
@@ -3864,16 +3787,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D13">
         <v>4.0999999999999996</v>
       </c>
       <c r="E13" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F13">
         <v>7000</v>
@@ -3884,16 +3807,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F14">
         <v>6500</v>
@@ -3904,16 +3827,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F15">
         <v>6500</v>
@@ -3924,16 +3847,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C16" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D16">
         <v>4.3</v>
       </c>
       <c r="E16" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F16">
         <v>8000</v>
@@ -3944,16 +3867,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D17">
         <v>3.9</v>
       </c>
       <c r="E17" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F17">
         <v>6000</v>
@@ -3964,16 +3887,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D18">
         <v>4.0999999999999996</v>
       </c>
       <c r="E18" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F18">
         <v>7000</v>
@@ -3984,16 +3907,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D19">
         <v>4.2</v>
       </c>
       <c r="E19" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F19">
         <v>7500</v>
@@ -4004,16 +3927,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D20">
         <v>4.3</v>
       </c>
       <c r="E20" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F20">
         <v>7500</v>
@@ -4024,16 +3947,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>4.0999999999999996</v>
       </c>
       <c r="E21" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F21">
         <v>7000</v>
@@ -4044,16 +3967,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F22">
         <v>7000</v>
@@ -4064,16 +3987,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D23">
         <v>4.5</v>
       </c>
       <c r="E23" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F23">
         <v>8500</v>
@@ -4084,16 +4007,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C24" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D24">
         <v>4.5999999999999996</v>
       </c>
       <c r="E24" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F24">
         <v>9000</v>
@@ -4104,16 +4027,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D25">
         <v>4.2</v>
       </c>
       <c r="E25" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F25">
         <v>7500</v>
@@ -4124,16 +4047,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D26">
         <v>4.0999999999999996</v>
       </c>
       <c r="E26" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F26">
         <v>7000</v>
@@ -4144,16 +4067,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F27">
         <v>6500</v>
@@ -4164,16 +4087,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F28">
         <v>6500</v>
@@ -4184,16 +4107,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29">
         <v>3.9</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F29">
         <v>6000</v>
@@ -4204,16 +4127,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30">
         <v>4.7</v>
       </c>
       <c r="E30" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F30">
         <v>9500</v>
@@ -4224,16 +4147,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31">
         <v>4.7</v>
       </c>
       <c r="E31" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F31">
         <v>9500</v>
@@ -4244,16 +4167,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D32">
         <v>3.8</v>
       </c>
       <c r="E32" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F32">
         <v>5500</v>
@@ -4264,16 +4187,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33">
         <v>4.5999999999999996</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F33">
         <v>9000</v>
@@ -4284,16 +4207,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34">
         <v>4.5</v>
       </c>
       <c r="E34" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F34">
         <v>8500</v>
@@ -4304,16 +4227,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35">
         <v>4.5999999999999996</v>
       </c>
       <c r="E35" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F35">
         <v>9000</v>
@@ -4324,16 +4247,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36">
         <v>4.3</v>
       </c>
       <c r="E36" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F36">
         <v>8000</v>
@@ -4344,16 +4267,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C37" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D37">
         <v>4.0999999999999996</v>
       </c>
       <c r="E37" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F37">
         <v>7000</v>
@@ -4364,16 +4287,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C38" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D38">
         <v>4.4000000000000004</v>
       </c>
       <c r="E38" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F38">
         <v>8500</v>
@@ -4384,16 +4307,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D39">
         <v>4.3</v>
       </c>
       <c r="E39" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F39">
         <v>8000</v>
@@ -4404,16 +4327,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F40">
         <v>7000</v>
@@ -4424,16 +4347,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C41" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D41">
         <v>4.2</v>
       </c>
       <c r="E41" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F41">
         <v>7500</v>
@@ -4444,16 +4367,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C42" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D42">
         <v>4.5</v>
       </c>
       <c r="E42" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F42">
         <v>8500</v>
@@ -4464,16 +4387,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C43" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D43">
         <v>4.3</v>
       </c>
       <c r="E43" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F43">
         <v>8000</v>
@@ -4484,16 +4407,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D44">
         <v>4.2</v>
       </c>
       <c r="E44" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F44">
         <v>7500</v>
@@ -4504,16 +4427,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D45">
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F45">
         <v>6500</v>
@@ -4524,16 +4447,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D46">
         <v>4.0999999999999996</v>
       </c>
       <c r="E46" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F46">
         <v>7000</v>
@@ -4544,16 +4467,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C47" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D47">
         <v>4.4000000000000004</v>
       </c>
       <c r="E47" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F47">
         <v>8500</v>
@@ -4564,16 +4487,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C48" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D48">
         <v>4.0999999999999996</v>
       </c>
       <c r="E48" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F48">
         <v>7000</v>
@@ -4584,16 +4507,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C49" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D49">
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F49">
         <v>6500</v>
@@ -4604,16 +4527,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D50">
         <v>4.2</v>
       </c>
       <c r="E50" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F50">
         <v>7500</v>
@@ -4624,16 +4547,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C51" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D51">
         <v>4.5</v>
       </c>
       <c r="E51" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F51">
         <v>8500</v>
@@ -4644,16 +4567,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C52" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F52">
         <v>6500</v>
@@ -4664,16 +4587,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C53" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D53">
         <v>4.3</v>
       </c>
       <c r="E53" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F53">
         <v>8000</v>
@@ -4684,16 +4607,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C54" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D54">
         <v>4.3</v>
       </c>
       <c r="E54" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="F54">
         <v>8000</v>
@@ -4704,16 +4627,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C55" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D55">
         <v>4.5999999999999996</v>
       </c>
       <c r="E55" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F55">
         <v>9000</v>
@@ -4724,16 +4647,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C56" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D56">
         <v>4.4000000000000004</v>
       </c>
       <c r="E56" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F56">
         <v>8500</v>
@@ -4744,16 +4667,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C57" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D57">
         <v>4.5</v>
       </c>
       <c r="E57" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F57">
         <v>8500</v>
@@ -4764,36 +4687,36 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D58">
         <v>4.0999999999999996</v>
       </c>
       <c r="E58" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F58">
         <v>7000</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C59" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D59">
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="F59">
         <v>6500</v>
@@ -4804,16 +4727,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C60" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D60">
         <v>4.0999999999999996</v>
       </c>
       <c r="E60" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="F60">
         <v>7000</v>
@@ -4824,16 +4747,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D61">
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F61">
         <v>6500</v>
@@ -4844,16 +4767,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C62" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D62">
         <v>4.2</v>
       </c>
       <c r="E62" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="F62">
         <v>7500</v>
@@ -4864,16 +4787,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D63">
         <v>4.3</v>
       </c>
       <c r="E63" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F63">
         <v>8000</v>
@@ -4884,16 +4807,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C64" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D64">
         <v>4.2</v>
       </c>
       <c r="E64" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F64">
         <v>7500</v>
@@ -4904,16 +4827,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C65" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D65">
         <v>3.9</v>
       </c>
       <c r="E65" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F65">
         <v>6000</v>
@@ -4924,56 +4847,56 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C66" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D66">
         <v>4.0999999999999996</v>
       </c>
       <c r="E66" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="F66">
         <v>7000</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C67" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D67">
         <v>4.2</v>
       </c>
       <c r="E67" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="F67">
         <v>7500</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D68">
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F68">
         <v>7000</v>
@@ -4984,16 +4907,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C69" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D69">
         <v>4.0999999999999996</v>
       </c>
       <c r="E69" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="F69">
         <v>7000</v>
@@ -5004,16 +4927,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C70" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D70">
         <v>4.4000000000000004</v>
       </c>
       <c r="E70" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F70">
         <v>8500</v>
@@ -5024,16 +4947,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C71" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D71">
         <v>4.2</v>
       </c>
       <c r="E71" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="F71">
         <v>7500</v>
@@ -5044,16 +4967,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D72">
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F72">
         <v>7000</v>
@@ -5064,16 +4987,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D73">
         <v>4.3</v>
       </c>
       <c r="E73" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="F73">
         <v>8000</v>
@@ -5084,16 +5007,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D74">
         <v>4.0999999999999996</v>
       </c>
       <c r="E74" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F74">
         <v>7000</v>
@@ -5104,16 +5027,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D75">
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F75">
         <v>6500</v>
@@ -5124,7 +5047,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -5144,16 +5067,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C77" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D77">
         <v>4.4000000000000004</v>
       </c>
       <c r="E77" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F77">
         <v>8500</v>
@@ -5164,16 +5087,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C78" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D78">
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F78">
         <v>7000</v>
@@ -5184,16 +5107,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C79" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D79">
         <v>4.0999999999999996</v>
       </c>
       <c r="E79" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F79">
         <v>7500</v>
@@ -5204,16 +5127,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C80" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D80">
         <v>4.3</v>
       </c>
       <c r="E80" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F80">
         <v>8000</v>
@@ -5224,16 +5147,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C81" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D81">
         <v>4.2</v>
       </c>
       <c r="E81" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F81">
         <v>7500</v>

--- a/Report/Book1.xlsx
+++ b/Report/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New folder\Major_project\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626FC773-8948-455C-AAB5-BA911D5F94D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2B4282-131B-4590-8FBB-F78DED767074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{526394E1-51BD-4BAD-8276-31717289FB82}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="276">
   <si>
     <t>Location</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>Rashtrapati Bhavan</t>
-  </si>
-  <si>
-    <t>Government Building</t>
   </si>
   <si>
     <t>Agrasen ki Baoli</t>
@@ -1249,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B56446-6CE4-42A1-876B-A2000D53FD03}">
   <dimension ref="A1:U86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,10 +1262,10 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" t="s">
-        <v>111</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1346,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -1393,22 +1390,22 @@
         <v>22</v>
       </c>
       <c r="P5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q5" t="s">
+        <v>272</v>
+      </c>
+      <c r="R5" t="s">
         <v>273</v>
       </c>
-      <c r="R5" t="s">
-        <v>274</v>
-      </c>
       <c r="S5" t="s">
+        <v>269</v>
+      </c>
+      <c r="T5" t="s">
+        <v>271</v>
+      </c>
+      <c r="U5" t="s">
         <v>270</v>
-      </c>
-      <c r="T5" t="s">
-        <v>272</v>
-      </c>
-      <c r="U5" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1520,10 +1517,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1572,7 +1569,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1598,13 +1595,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
       </c>
       <c r="E13">
         <v>4.2</v>
@@ -1630,7 +1627,7 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>4.7</v>
@@ -1650,7 +1647,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -1676,13 +1673,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
       </c>
       <c r="E16">
         <v>4.4000000000000004</v>
@@ -1694,7 +1691,7 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1702,13 +1699,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>4.5999999999999996</v>
@@ -1728,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -1754,10 +1751,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
         <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1806,10 +1803,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -1832,13 +1829,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -1850,7 +1847,7 @@
         <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1858,10 +1855,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
         <v>56</v>
-      </c>
-      <c r="C23" t="s">
-        <v>57</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
@@ -1884,13 +1881,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
         <v>115</v>
       </c>
-      <c r="C24" t="s">
-        <v>116</v>
-      </c>
       <c r="D24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E24">
         <v>4.2</v>
@@ -1902,7 +1899,7 @@
         <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1910,13 +1907,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25">
         <v>4.2</v>
@@ -1928,7 +1925,7 @@
         <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1936,13 +1933,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
         <v>62</v>
       </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26">
         <v>4.5</v>
@@ -1962,13 +1959,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
         <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E27">
         <v>4.4000000000000004</v>
@@ -1980,7 +1977,7 @@
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1988,10 +1985,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
         <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -2014,10 +2011,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
         <v>117</v>
-      </c>
-      <c r="C29" t="s">
-        <v>118</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -2040,13 +2037,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E30">
         <v>4.2</v>
@@ -2058,7 +2055,7 @@
         <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2066,7 +2063,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -2092,10 +2089,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
         <v>81</v>
-      </c>
-      <c r="C32" t="s">
-        <v>82</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
@@ -2118,10 +2115,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
         <v>77</v>
-      </c>
-      <c r="C33" t="s">
-        <v>78</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
@@ -2162,7 +2159,7 @@
         <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2170,10 +2167,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
         <v>58</v>
-      </c>
-      <c r="C35" t="s">
-        <v>59</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2196,10 +2193,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
         <v>75</v>
-      </c>
-      <c r="C36" t="s">
-        <v>76</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
@@ -2222,7 +2219,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
@@ -2248,7 +2245,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
         <v>33</v>
@@ -2274,10 +2271,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
         <v>25</v>
@@ -2300,10 +2297,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
         <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>87</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
@@ -2326,10 +2323,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
         <v>88</v>
-      </c>
-      <c r="C41" t="s">
-        <v>89</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
@@ -2352,13 +2349,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
         <v>94</v>
       </c>
-      <c r="C42" t="s">
-        <v>95</v>
-      </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42">
         <v>4.3</v>
@@ -2378,13 +2375,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
         <v>92</v>
       </c>
-      <c r="C43" t="s">
-        <v>93</v>
-      </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43">
         <v>4.2</v>
@@ -2404,10 +2401,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
         <v>90</v>
-      </c>
-      <c r="C44" t="s">
-        <v>91</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2430,13 +2427,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
         <v>96</v>
       </c>
-      <c r="C45" t="s">
-        <v>97</v>
-      </c>
       <c r="D45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E45">
         <v>4.4000000000000004</v>
@@ -2448,7 +2445,7 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2456,10 +2453,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" t="s">
         <v>122</v>
-      </c>
-      <c r="C46" t="s">
-        <v>123</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
@@ -2482,13 +2479,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
         <v>124</v>
       </c>
-      <c r="C47" t="s">
-        <v>125</v>
-      </c>
       <c r="D47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E47">
         <v>4.0999999999999996</v>
@@ -2500,7 +2497,7 @@
         <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2508,13 +2505,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" t="s">
         <v>126</v>
       </c>
-      <c r="C48" t="s">
-        <v>127</v>
-      </c>
       <c r="D48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E48">
         <v>4.5999999999999996</v>
@@ -2526,7 +2523,7 @@
         <v>15</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2534,7 +2531,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
         <v>39</v>
@@ -2560,10 +2557,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D50" t="s">
         <v>29</v>
@@ -2578,7 +2575,7 @@
         <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2586,7 +2583,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
         <v>33</v>
@@ -2612,10 +2609,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
         <v>79</v>
-      </c>
-      <c r="C52" t="s">
-        <v>80</v>
       </c>
       <c r="D52" t="s">
         <v>37</v>
@@ -2630,7 +2627,7 @@
         <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2638,13 +2635,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
         <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E53">
         <v>4.5</v>
@@ -2656,7 +2653,7 @@
         <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2664,13 +2661,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E54">
         <v>4.5999999999999996</v>
@@ -2682,7 +2679,7 @@
         <v>15</v>
       </c>
       <c r="H54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2690,13 +2687,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
         <v>104</v>
       </c>
-      <c r="C55" t="s">
-        <v>105</v>
-      </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E55">
         <v>4.4000000000000004</v>
@@ -2716,7 +2713,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C56" t="s">
         <v>33</v>
@@ -2734,7 +2731,7 @@
         <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2742,13 +2739,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E57">
         <v>4.5999999999999996</v>
@@ -2760,7 +2757,7 @@
         <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2768,7 +2765,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
         <v>33</v>
@@ -2786,7 +2783,7 @@
         <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2794,7 +2791,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
         <v>33</v>
@@ -2820,10 +2817,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D60" t="s">
         <v>41</v>
@@ -2838,7 +2835,7 @@
         <v>15</v>
       </c>
       <c r="H60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2846,7 +2843,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
         <v>39</v>
@@ -2872,10 +2869,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
         <v>138</v>
-      </c>
-      <c r="C62" t="s">
-        <v>139</v>
       </c>
       <c r="D62" t="s">
         <v>37</v>
@@ -2890,7 +2887,7 @@
         <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2898,10 +2895,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D63" t="s">
         <v>37</v>
@@ -2916,7 +2913,7 @@
         <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2924,10 +2921,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" t="s">
         <v>140</v>
-      </c>
-      <c r="C64" t="s">
-        <v>141</v>
       </c>
       <c r="D64" t="s">
         <v>37</v>
@@ -2950,10 +2947,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" t="s">
         <v>142</v>
-      </c>
-      <c r="C65" t="s">
-        <v>143</v>
       </c>
       <c r="D65" t="s">
         <v>29</v>
@@ -2976,10 +2973,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" t="s">
         <v>108</v>
-      </c>
-      <c r="C66" t="s">
-        <v>109</v>
       </c>
       <c r="D66" t="s">
         <v>37</v>
@@ -2994,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="H66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3002,10 +2999,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" t="s">
         <v>101</v>
-      </c>
-      <c r="C67" t="s">
-        <v>102</v>
       </c>
       <c r="D67" t="s">
         <v>37</v>
@@ -3020,7 +3017,7 @@
         <v>10</v>
       </c>
       <c r="H67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3028,10 +3025,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D68" t="s">
         <v>37</v>
@@ -3046,7 +3043,7 @@
         <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3054,10 +3051,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D69" t="s">
         <v>29</v>
@@ -3080,10 +3077,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D70" t="s">
         <v>29</v>
@@ -3106,13 +3103,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" t="s">
         <v>147</v>
       </c>
-      <c r="C71" t="s">
-        <v>148</v>
-      </c>
       <c r="D71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E71">
         <v>4.8</v>
@@ -3124,7 +3121,7 @@
         <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3132,13 +3129,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E72">
         <v>4.9000000000000004</v>
@@ -3150,7 +3147,7 @@
         <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3158,13 +3155,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" t="s">
         <v>150</v>
       </c>
-      <c r="C73" t="s">
-        <v>151</v>
-      </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E73">
         <v>4.8</v>
@@ -3176,7 +3173,7 @@
         <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3184,13 +3181,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" t="s">
         <v>152</v>
       </c>
-      <c r="C74" t="s">
-        <v>153</v>
-      </c>
       <c r="D74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E74">
         <v>4.7</v>
@@ -3202,7 +3199,7 @@
         <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3210,13 +3207,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" t="s">
         <v>154</v>
       </c>
-      <c r="C75" t="s">
-        <v>155</v>
-      </c>
       <c r="D75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E75">
         <v>4.5999999999999996</v>
@@ -3228,7 +3225,7 @@
         <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3236,13 +3233,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E76">
         <v>4.5</v>
@@ -3254,7 +3251,7 @@
         <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3262,7 +3259,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C77" t="s">
         <v>33</v>
@@ -3280,7 +3277,7 @@
         <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3288,10 +3285,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
         <v>158</v>
-      </c>
-      <c r="C78" t="s">
-        <v>159</v>
       </c>
       <c r="D78" t="s">
         <v>41</v>
@@ -3306,7 +3303,7 @@
         <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3314,10 +3311,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D79" t="s">
         <v>41</v>
@@ -3332,7 +3329,7 @@
         <v>15</v>
       </c>
       <c r="H79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3340,10 +3337,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" t="s">
         <v>98</v>
-      </c>
-      <c r="C80" t="s">
-        <v>99</v>
       </c>
       <c r="D80" t="s">
         <v>41</v>
@@ -3366,10 +3363,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" t="s">
         <v>161</v>
-      </c>
-      <c r="C81" t="s">
-        <v>162</v>
       </c>
       <c r="D81" t="s">
         <v>41</v>
@@ -3392,10 +3389,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D82" t="s">
         <v>41</v>
@@ -3418,7 +3415,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C83" t="s">
         <v>39</v>
@@ -3444,10 +3441,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D84" t="s">
         <v>41</v>
@@ -3462,7 +3459,7 @@
         <v>15</v>
       </c>
       <c r="H84" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3470,13 +3467,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" t="s">
         <v>166</v>
       </c>
-      <c r="C85" t="s">
-        <v>167</v>
-      </c>
       <c r="D85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E85">
         <v>4.2</v>
@@ -3488,7 +3485,7 @@
         <v>10</v>
       </c>
       <c r="H85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3496,10 +3493,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" t="s">
         <v>168</v>
-      </c>
-      <c r="C86" t="s">
-        <v>169</v>
       </c>
       <c r="D86" t="s">
         <v>41</v>
@@ -3514,7 +3511,7 @@
         <v>15</v>
       </c>
       <c r="H86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3530,7 +3527,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3544,10 +3541,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3556,10 +3553,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3567,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -3576,7 +3573,7 @@
         <v>4.5</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F2">
         <v>5000</v>
@@ -3587,16 +3584,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D3">
         <v>4.5999999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F3">
         <v>6000</v>
@@ -3607,16 +3604,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4">
         <v>4.3</v>
       </c>
       <c r="E4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F4">
         <v>7000</v>
@@ -3627,16 +3624,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D5">
         <v>4.4000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F5">
         <v>8000</v>
@@ -3647,16 +3644,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D6">
         <v>4.5</v>
       </c>
       <c r="E6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F6">
         <v>7000</v>
@@ -3667,16 +3664,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D7">
         <v>4.5999999999999996</v>
       </c>
       <c r="E7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F7">
         <v>10000</v>
@@ -3687,16 +3684,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D8">
         <v>4.7</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F8">
         <v>9000</v>
@@ -3707,16 +3704,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9">
         <v>4.3</v>
       </c>
       <c r="E9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F9">
         <v>8000</v>
@@ -3727,16 +3724,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10">
         <v>4.2</v>
       </c>
       <c r="E10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F10">
         <v>7500</v>
@@ -3747,16 +3744,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D11">
         <v>4.4000000000000004</v>
       </c>
       <c r="E11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F11">
         <v>7000</v>
@@ -3767,16 +3764,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12">
         <v>4.2</v>
       </c>
       <c r="E12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F12">
         <v>7500</v>
@@ -3787,16 +3784,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D13">
         <v>4.0999999999999996</v>
       </c>
       <c r="E13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F13">
         <v>7000</v>
@@ -3807,7 +3804,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -3816,7 +3813,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F14">
         <v>6500</v>
@@ -3827,7 +3824,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -3836,7 +3833,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F15">
         <v>6500</v>
@@ -3847,16 +3844,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D16">
         <v>4.3</v>
       </c>
       <c r="E16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F16">
         <v>8000</v>
@@ -3867,16 +3864,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17">
         <v>3.9</v>
       </c>
       <c r="E17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F17">
         <v>6000</v>
@@ -3887,16 +3884,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D18">
         <v>4.0999999999999996</v>
       </c>
       <c r="E18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F18">
         <v>7000</v>
@@ -3907,16 +3904,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19">
         <v>4.2</v>
       </c>
       <c r="E19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F19">
         <v>7500</v>
@@ -3927,16 +3924,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20">
         <v>4.3</v>
       </c>
       <c r="E20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F20">
         <v>7500</v>
@@ -3947,7 +3944,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -3956,7 +3953,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F21">
         <v>7000</v>
@@ -3967,7 +3964,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -3976,7 +3973,7 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F22">
         <v>7000</v>
@@ -3987,16 +3984,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D23">
         <v>4.5</v>
       </c>
       <c r="E23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F23">
         <v>8500</v>
@@ -4007,16 +4004,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D24">
         <v>4.5999999999999996</v>
       </c>
       <c r="E24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F24">
         <v>9000</v>
@@ -4027,16 +4024,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D25">
         <v>4.2</v>
       </c>
       <c r="E25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F25">
         <v>7500</v>
@@ -4047,16 +4044,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D26">
         <v>4.0999999999999996</v>
       </c>
       <c r="E26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F26">
         <v>7000</v>
@@ -4067,16 +4064,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F27">
         <v>6500</v>
@@ -4087,7 +4084,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
@@ -4096,7 +4093,7 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F28">
         <v>6500</v>
@@ -4107,7 +4104,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
@@ -4116,7 +4113,7 @@
         <v>3.9</v>
       </c>
       <c r="E29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F29">
         <v>6000</v>
@@ -4127,7 +4124,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
@@ -4136,7 +4133,7 @@
         <v>4.7</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F30">
         <v>9500</v>
@@ -4147,7 +4144,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
@@ -4156,7 +4153,7 @@
         <v>4.7</v>
       </c>
       <c r="E31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F31">
         <v>9500</v>
@@ -4167,16 +4164,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D32">
         <v>3.8</v>
       </c>
       <c r="E32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F32">
         <v>5500</v>
@@ -4187,7 +4184,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
@@ -4196,7 +4193,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F33">
         <v>9000</v>
@@ -4207,7 +4204,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
@@ -4216,7 +4213,7 @@
         <v>4.5</v>
       </c>
       <c r="E34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F34">
         <v>8500</v>
@@ -4227,7 +4224,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
@@ -4236,7 +4233,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F35">
         <v>9000</v>
@@ -4247,7 +4244,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
@@ -4256,7 +4253,7 @@
         <v>4.3</v>
       </c>
       <c r="E36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F36">
         <v>8000</v>
@@ -4267,16 +4264,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D37">
         <v>4.0999999999999996</v>
       </c>
       <c r="E37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F37">
         <v>7000</v>
@@ -4287,16 +4284,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D38">
         <v>4.4000000000000004</v>
       </c>
       <c r="E38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F38">
         <v>8500</v>
@@ -4307,16 +4304,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D39">
         <v>4.3</v>
       </c>
       <c r="E39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F39">
         <v>8000</v>
@@ -4327,7 +4324,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C40" t="s">
         <v>25</v>
@@ -4336,7 +4333,7 @@
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F40">
         <v>7000</v>
@@ -4347,16 +4344,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D41">
         <v>4.2</v>
       </c>
       <c r="E41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F41">
         <v>7500</v>
@@ -4367,16 +4364,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D42">
         <v>4.5</v>
       </c>
       <c r="E42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F42">
         <v>8500</v>
@@ -4387,16 +4384,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D43">
         <v>4.3</v>
       </c>
       <c r="E43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F43">
         <v>8000</v>
@@ -4407,7 +4404,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C44" t="s">
         <v>25</v>
@@ -4416,7 +4413,7 @@
         <v>4.2</v>
       </c>
       <c r="E44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F44">
         <v>7500</v>
@@ -4427,16 +4424,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D45">
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F45">
         <v>6500</v>
@@ -4447,16 +4444,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D46">
         <v>4.0999999999999996</v>
       </c>
       <c r="E46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F46">
         <v>7000</v>
@@ -4467,16 +4464,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D47">
         <v>4.4000000000000004</v>
       </c>
       <c r="E47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F47">
         <v>8500</v>
@@ -4487,16 +4484,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D48">
         <v>4.0999999999999996</v>
       </c>
       <c r="E48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F48">
         <v>7000</v>
@@ -4507,16 +4504,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D49">
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F49">
         <v>6500</v>
@@ -4527,7 +4524,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C50" t="s">
         <v>25</v>
@@ -4536,7 +4533,7 @@
         <v>4.2</v>
       </c>
       <c r="E50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F50">
         <v>7500</v>
@@ -4547,16 +4544,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D51">
         <v>4.5</v>
       </c>
       <c r="E51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F51">
         <v>8500</v>
@@ -4567,16 +4564,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F52">
         <v>6500</v>
@@ -4587,16 +4584,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D53">
         <v>4.3</v>
       </c>
       <c r="E53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F53">
         <v>8000</v>
@@ -4607,16 +4604,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D54">
         <v>4.3</v>
       </c>
       <c r="E54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F54">
         <v>8000</v>
@@ -4627,16 +4624,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D55">
         <v>4.5999999999999996</v>
       </c>
       <c r="E55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F55">
         <v>9000</v>
@@ -4647,16 +4644,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D56">
         <v>4.4000000000000004</v>
       </c>
       <c r="E56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F56">
         <v>8500</v>
@@ -4667,16 +4664,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D57">
         <v>4.5</v>
       </c>
       <c r="E57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F57">
         <v>8500</v>
@@ -4687,7 +4684,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C58" t="s">
         <v>25</v>
@@ -4696,7 +4693,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F58">
         <v>7000</v>
@@ -4707,16 +4704,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D59">
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F59">
         <v>6500</v>
@@ -4727,16 +4724,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D60">
         <v>4.0999999999999996</v>
       </c>
       <c r="E60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F60">
         <v>7000</v>
@@ -4747,7 +4744,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C61" t="s">
         <v>25</v>
@@ -4756,7 +4753,7 @@
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F61">
         <v>6500</v>
@@ -4767,16 +4764,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D62">
         <v>4.2</v>
       </c>
       <c r="E62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F62">
         <v>7500</v>
@@ -4787,7 +4784,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C63" t="s">
         <v>25</v>
@@ -4796,7 +4793,7 @@
         <v>4.3</v>
       </c>
       <c r="E63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F63">
         <v>8000</v>
@@ -4807,16 +4804,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D64">
         <v>4.2</v>
       </c>
       <c r="E64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F64">
         <v>7500</v>
@@ -4827,16 +4824,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D65">
         <v>3.9</v>
       </c>
       <c r="E65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F65">
         <v>6000</v>
@@ -4847,16 +4844,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C66" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D66">
         <v>4.0999999999999996</v>
       </c>
       <c r="E66" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F66">
         <v>7000</v>
@@ -4867,16 +4864,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D67">
         <v>4.2</v>
       </c>
       <c r="E67" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F67">
         <v>7500</v>
@@ -4887,7 +4884,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C68" t="s">
         <v>25</v>
@@ -4896,7 +4893,7 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F68">
         <v>7000</v>
@@ -4907,16 +4904,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C69" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D69">
         <v>4.0999999999999996</v>
       </c>
       <c r="E69" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F69">
         <v>7000</v>
@@ -4927,16 +4924,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D70">
         <v>4.4000000000000004</v>
       </c>
       <c r="E70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F70">
         <v>8500</v>
@@ -4947,16 +4944,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D71">
         <v>4.2</v>
       </c>
       <c r="E71" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F71">
         <v>7500</v>
@@ -4967,7 +4964,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C72" t="s">
         <v>25</v>
@@ -4976,7 +4973,7 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F72">
         <v>7000</v>
@@ -4987,16 +4984,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D73">
         <v>4.3</v>
       </c>
       <c r="E73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F73">
         <v>8000</v>
@@ -5007,7 +5004,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C74" t="s">
         <v>25</v>
@@ -5016,7 +5013,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F74">
         <v>7000</v>
@@ -5027,7 +5024,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C75" t="s">
         <v>25</v>
@@ -5036,7 +5033,7 @@
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F75">
         <v>6500</v>
@@ -5047,7 +5044,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -5067,16 +5064,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C77" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D77">
         <v>4.4000000000000004</v>
       </c>
       <c r="E77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F77">
         <v>8500</v>
@@ -5087,16 +5084,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D78">
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F78">
         <v>7000</v>
@@ -5107,16 +5104,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D79">
         <v>4.0999999999999996</v>
       </c>
       <c r="E79" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F79">
         <v>7500</v>
@@ -5127,16 +5124,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C80" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D80">
         <v>4.3</v>
       </c>
       <c r="E80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F80">
         <v>8000</v>
@@ -5147,16 +5144,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C81" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D81">
         <v>4.2</v>
       </c>
       <c r="E81" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F81">
         <v>7500</v>

--- a/Report/Book1.xlsx
+++ b/Report/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New folder\Major_project\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2B4282-131B-4590-8FBB-F78DED767074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3BC7F7-14E9-42DE-B5DE-974201B3DCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{526394E1-51BD-4BAD-8276-31717289FB82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{526394E1-51BD-4BAD-8276-31717289FB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="268">
   <si>
     <t>Location</t>
   </si>
@@ -781,9 +781,6 @@
     <t>Normal Budget (INR)</t>
   </si>
   <si>
-    <t>Adventure Sports/Religious</t>
-  </si>
-  <si>
     <t>Adventurer/Pilgrimage</t>
   </si>
   <si>
@@ -793,40 +790,19 @@
     <t>Natural Beauty</t>
   </si>
   <si>
-    <t>Hill Station/Natural Beauty</t>
-  </si>
-  <si>
-    <t>Wildlife Sanctuaries and National Parks</t>
-  </si>
-  <si>
     <t>Wildlife Enthusiasts</t>
   </si>
   <si>
-    <t>Adventure Sports/Hill Station</t>
-  </si>
-  <si>
     <t>Adventurer/Leisure</t>
   </si>
   <si>
-    <t>Adventure Sports/Natural Beauty</t>
-  </si>
-  <si>
     <t>Adventure Sports</t>
   </si>
   <si>
     <t>Adventurer</t>
   </si>
   <si>
-    <t>Religious/Adventure Sports</t>
-  </si>
-  <si>
     <t>Pilgrimage/Adventurer</t>
-  </si>
-  <si>
-    <t>Shopping/Hill Station</t>
-  </si>
-  <si>
-    <t>Historical/Natural Beauty</t>
   </si>
   <si>
     <t>Culture/Leisure</t>
@@ -1246,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B56446-6CE4-42A1-876B-A2000D53FD03}">
   <dimension ref="A1:U86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,22 +1366,22 @@
         <v>22</v>
       </c>
       <c r="P5" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="Q5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="R5" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="S5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="T5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="U5" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1835,7 +1811,7 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -1887,7 +1863,7 @@
         <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E24">
         <v>4.2</v>
@@ -1965,7 +1941,7 @@
         <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E27">
         <v>4.4000000000000004</v>
@@ -2043,7 +2019,7 @@
         <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E30">
         <v>4.2</v>
@@ -2433,7 +2409,7 @@
         <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E45">
         <v>4.4000000000000004</v>
@@ -2485,7 +2461,7 @@
         <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E47">
         <v>4.0999999999999996</v>
@@ -2511,7 +2487,7 @@
         <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E48">
         <v>4.5999999999999996</v>
@@ -2641,7 +2617,7 @@
         <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E53">
         <v>4.5</v>
@@ -2667,7 +2643,7 @@
         <v>82</v>
       </c>
       <c r="D54" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E54">
         <v>4.5999999999999996</v>
@@ -3109,7 +3085,7 @@
         <v>147</v>
       </c>
       <c r="D71" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E71">
         <v>4.8</v>
@@ -3526,8 +3502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF82C6-D54D-4741-87E8-046647D0E08D}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3587,13 +3563,13 @@
         <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D3">
         <v>4.5999999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F3">
         <v>6000</v>
@@ -3613,7 +3589,7 @@
         <v>4.3</v>
       </c>
       <c r="E4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F4">
         <v>7000</v>
@@ -3627,13 +3603,13 @@
         <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D5">
         <v>4.4000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F5">
         <v>8000</v>
@@ -3647,13 +3623,13 @@
         <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="D6">
         <v>4.5</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F6">
         <v>7000</v>
@@ -3667,13 +3643,13 @@
         <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>4.5999999999999996</v>
       </c>
       <c r="E7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F7">
         <v>10000</v>
@@ -3687,13 +3663,13 @@
         <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D8">
         <v>4.7</v>
       </c>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F8">
         <v>9000</v>
@@ -3713,7 +3689,7 @@
         <v>4.3</v>
       </c>
       <c r="E9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F9">
         <v>8000</v>
@@ -3733,7 +3709,7 @@
         <v>4.2</v>
       </c>
       <c r="E10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F10">
         <v>7500</v>
@@ -3753,7 +3729,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F11">
         <v>7000</v>
@@ -3773,7 +3749,7 @@
         <v>4.2</v>
       </c>
       <c r="E12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F12">
         <v>7500</v>
@@ -3787,13 +3763,13 @@
         <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="D13">
         <v>4.0999999999999996</v>
       </c>
       <c r="E13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F13">
         <v>7000</v>
@@ -3847,13 +3823,13 @@
         <v>224</v>
       </c>
       <c r="C16" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D16">
         <v>4.3</v>
       </c>
       <c r="E16" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F16">
         <v>8000</v>
@@ -3873,7 +3849,7 @@
         <v>3.9</v>
       </c>
       <c r="E17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F17">
         <v>6000</v>
@@ -3887,13 +3863,13 @@
         <v>190</v>
       </c>
       <c r="C18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D18">
         <v>4.0999999999999996</v>
       </c>
       <c r="E18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F18">
         <v>7000</v>
@@ -3913,7 +3889,7 @@
         <v>4.2</v>
       </c>
       <c r="E19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F19">
         <v>7500</v>
@@ -3933,7 +3909,7 @@
         <v>4.3</v>
       </c>
       <c r="E20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F20">
         <v>7500</v>
@@ -3987,13 +3963,13 @@
         <v>181</v>
       </c>
       <c r="C23" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D23">
         <v>4.5</v>
       </c>
       <c r="E23" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F23">
         <v>8500</v>
@@ -4007,13 +3983,13 @@
         <v>178</v>
       </c>
       <c r="C24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D24">
         <v>4.5999999999999996</v>
       </c>
       <c r="E24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F24">
         <v>9000</v>
@@ -4033,7 +4009,7 @@
         <v>4.2</v>
       </c>
       <c r="E25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F25">
         <v>7500</v>
@@ -4053,7 +4029,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F26">
         <v>7000</v>
@@ -4073,7 +4049,7 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F27">
         <v>6500</v>
@@ -4173,7 +4149,7 @@
         <v>3.8</v>
       </c>
       <c r="E32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F32">
         <v>5500</v>
@@ -4267,13 +4243,13 @@
         <v>190</v>
       </c>
       <c r="C37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D37">
         <v>4.0999999999999996</v>
       </c>
       <c r="E37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F37">
         <v>7000</v>
@@ -4287,13 +4263,13 @@
         <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D38">
         <v>4.4000000000000004</v>
       </c>
       <c r="E38" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F38">
         <v>8500</v>
@@ -4307,13 +4283,13 @@
         <v>197</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="D39">
         <v>4.3</v>
       </c>
       <c r="E39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F39">
         <v>8000</v>
@@ -4347,13 +4323,13 @@
         <v>191</v>
       </c>
       <c r="C41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D41">
         <v>4.2</v>
       </c>
       <c r="E41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F41">
         <v>7500</v>
@@ -4367,13 +4343,13 @@
         <v>193</v>
       </c>
       <c r="C42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D42">
         <v>4.5</v>
       </c>
       <c r="E42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F42">
         <v>8500</v>
@@ -4387,13 +4363,13 @@
         <v>197</v>
       </c>
       <c r="C43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D43">
         <v>4.3</v>
       </c>
       <c r="E43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F43">
         <v>8000</v>
@@ -4433,7 +4409,7 @@
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F45">
         <v>6500</v>
@@ -4453,7 +4429,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F46">
         <v>7000</v>
@@ -4467,13 +4443,13 @@
         <v>219</v>
       </c>
       <c r="C47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D47">
         <v>4.4000000000000004</v>
       </c>
       <c r="E47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F47">
         <v>8500</v>
@@ -4487,13 +4463,13 @@
         <v>199</v>
       </c>
       <c r="C48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D48">
         <v>4.0999999999999996</v>
       </c>
       <c r="E48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F48">
         <v>7000</v>
@@ -4507,13 +4483,13 @@
         <v>232</v>
       </c>
       <c r="C49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D49">
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F49">
         <v>6500</v>
@@ -4547,13 +4523,13 @@
         <v>233</v>
       </c>
       <c r="C51" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D51">
         <v>4.5</v>
       </c>
       <c r="E51" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F51">
         <v>8500</v>
@@ -4567,13 +4543,13 @@
         <v>214</v>
       </c>
       <c r="C52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F52">
         <v>6500</v>
@@ -4593,7 +4569,7 @@
         <v>4.3</v>
       </c>
       <c r="E53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F53">
         <v>8000</v>
@@ -4607,13 +4583,13 @@
         <v>234</v>
       </c>
       <c r="C54" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D54">
         <v>4.3</v>
       </c>
       <c r="E54" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F54">
         <v>8000</v>
@@ -4627,13 +4603,13 @@
         <v>235</v>
       </c>
       <c r="C55" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D55">
         <v>4.5999999999999996</v>
       </c>
       <c r="E55" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F55">
         <v>9000</v>
@@ -4647,13 +4623,13 @@
         <v>236</v>
       </c>
       <c r="C56" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D56">
         <v>4.4000000000000004</v>
       </c>
       <c r="E56" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F56">
         <v>8500</v>
@@ -4667,13 +4643,13 @@
         <v>207</v>
       </c>
       <c r="C57" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D57">
         <v>4.5</v>
       </c>
       <c r="E57" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F57">
         <v>8500</v>
@@ -4707,13 +4683,13 @@
         <v>238</v>
       </c>
       <c r="C59" t="s">
-        <v>256</v>
+        <v>29</v>
       </c>
       <c r="D59">
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F59">
         <v>6500</v>
@@ -4727,13 +4703,13 @@
         <v>221</v>
       </c>
       <c r="C60" t="s">
-        <v>256</v>
+        <v>29</v>
       </c>
       <c r="D60">
         <v>4.0999999999999996</v>
       </c>
       <c r="E60" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F60">
         <v>7000</v>
@@ -4767,13 +4743,13 @@
         <v>220</v>
       </c>
       <c r="C62" t="s">
-        <v>263</v>
+        <v>25</v>
       </c>
       <c r="D62">
         <v>4.2</v>
       </c>
       <c r="E62" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F62">
         <v>7500</v>
@@ -4807,13 +4783,13 @@
         <v>213</v>
       </c>
       <c r="C64" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D64">
         <v>4.2</v>
       </c>
       <c r="E64" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F64">
         <v>7500</v>
@@ -4827,13 +4803,13 @@
         <v>239</v>
       </c>
       <c r="C65" t="s">
-        <v>265</v>
+        <v>71</v>
       </c>
       <c r="D65">
         <v>3.9</v>
       </c>
       <c r="E65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F65">
         <v>6000</v>
@@ -4847,13 +4823,13 @@
         <v>240</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D66">
         <v>4.0999999999999996</v>
       </c>
       <c r="E66" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F66">
         <v>7000</v>
@@ -4867,13 +4843,13 @@
         <v>241</v>
       </c>
       <c r="C67" t="s">
-        <v>266</v>
+        <v>8</v>
       </c>
       <c r="D67">
         <v>4.2</v>
       </c>
       <c r="E67" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F67">
         <v>7500</v>
@@ -4907,13 +4883,13 @@
         <v>200</v>
       </c>
       <c r="C69" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D69">
         <v>4.0999999999999996</v>
       </c>
       <c r="E69" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F69">
         <v>7000</v>
@@ -4927,13 +4903,13 @@
         <v>242</v>
       </c>
       <c r="C70" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D70">
         <v>4.4000000000000004</v>
       </c>
       <c r="E70" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F70">
         <v>8500</v>
@@ -4947,13 +4923,13 @@
         <v>216</v>
       </c>
       <c r="C71" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D71">
         <v>4.2</v>
       </c>
       <c r="E71" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F71">
         <v>7500</v>
@@ -4987,13 +4963,13 @@
         <v>201</v>
       </c>
       <c r="C73" t="s">
-        <v>263</v>
+        <v>25</v>
       </c>
       <c r="D73">
         <v>4.3</v>
       </c>
       <c r="E73" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F73">
         <v>8000</v>
@@ -5067,13 +5043,13 @@
         <v>246</v>
       </c>
       <c r="C77" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D77">
         <v>4.4000000000000004</v>
       </c>
       <c r="E77" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F77">
         <v>8500</v>
@@ -5087,13 +5063,13 @@
         <v>205</v>
       </c>
       <c r="C78" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D78">
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F78">
         <v>7000</v>
@@ -5107,13 +5083,13 @@
         <v>247</v>
       </c>
       <c r="C79" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D79">
         <v>4.0999999999999996</v>
       </c>
       <c r="E79" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F79">
         <v>7500</v>
@@ -5127,13 +5103,13 @@
         <v>248</v>
       </c>
       <c r="C80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D80">
         <v>4.3</v>
       </c>
       <c r="E80" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F80">
         <v>8000</v>
@@ -5147,13 +5123,13 @@
         <v>249</v>
       </c>
       <c r="C81" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D81">
         <v>4.2</v>
       </c>
       <c r="E81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F81">
         <v>7500</v>

--- a/Report/Book1.xlsx
+++ b/Report/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New folder\Major_project\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Major Project\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3BC7F7-14E9-42DE-B5DE-974201B3DCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CA02A2-4AD4-4AB3-A27F-376442DD4F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{526394E1-51BD-4BAD-8276-31717289FB82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{526394E1-51BD-4BAD-8276-31717289FB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -409,9 +409,6 @@
     <t>Max Mueller Marg</t>
   </si>
   <si>
-    <t>Khari Baoli (Asia’s largest spice market)</t>
-  </si>
-  <si>
     <t>Delhi Ridge Tiger Safari</t>
   </si>
   <si>
@@ -830,6 +827,9 @@
   </si>
   <si>
     <t>Cultural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khari Baoli </t>
   </si>
 </sst>
 </file>
@@ -893,7 +893,17 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC303E25-D0A4-4188-8D11-1DBDA26594DD}" name="Table2" displayName="Table2" ref="A1:H86" totalsRowShown="0">
-  <autoFilter ref="A1:H86" xr:uid="{DC303E25-D0A4-4188-8D11-1DBDA26594DD}"/>
+  <autoFilter ref="A1:H86" xr:uid="{DC303E25-D0A4-4188-8D11-1DBDA26594DD}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Wildlife"/>
+        <filter val="Zoo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H59">
+    <sortCondition descending="1" ref="E3:E86"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3F60CF5C-CF6D-43A3-B8E6-38C863496060}" name="ID"/>
     <tableColumn id="2" xr3:uid="{5CEF5C71-3F02-44AD-82BD-20811D16CB01}" name="Tourist Spot Name"/>
@@ -1222,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B56446-6CE4-42A1-876B-A2000D53FD03}">
   <dimension ref="A1:U86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1288,21 +1298,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1311,10 +1321,10 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1340,51 +1350,51 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q5" t="s">
+        <v>263</v>
+      </c>
+      <c r="R5" t="s">
         <v>264</v>
       </c>
-      <c r="R5" t="s">
-        <v>265</v>
-      </c>
       <c r="S5" t="s">
+        <v>260</v>
+      </c>
+      <c r="T5" t="s">
+        <v>262</v>
+      </c>
+      <c r="U5" t="s">
         <v>261</v>
       </c>
-      <c r="T5" t="s">
-        <v>263</v>
-      </c>
-      <c r="U5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1410,7 +1420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1436,7 +1446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1462,7 +1472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1488,7 +1498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1514,30 +1524,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1566,7 +1576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1592,7 +1602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1618,7 +1628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1644,7 +1654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1670,7 +1680,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1696,7 +1706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1722,7 +1732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1748,7 +1758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1774,7 +1784,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1800,7 +1810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1811,7 +1821,7 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -1826,7 +1836,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1852,7 +1862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1863,7 +1873,7 @@
         <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E24">
         <v>4.2</v>
@@ -1878,7 +1888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1904,7 +1914,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1930,7 +1940,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1941,7 +1951,7 @@
         <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E27">
         <v>4.4000000000000004</v>
@@ -1956,21 +1966,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -1982,7 +1992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2008,7 +2018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2019,7 +2029,7 @@
         <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E30">
         <v>4.2</v>
@@ -2034,7 +2044,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2060,7 +2070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2086,7 +2096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2112,7 +2122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2138,21 +2148,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
@@ -2164,7 +2174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2190,7 +2200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2216,7 +2226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2242,7 +2252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2268,7 +2278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2294,7 +2304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2320,7 +2330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2346,7 +2356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2372,15 +2382,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2398,7 +2408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2409,7 +2419,7 @@
         <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E45">
         <v>4.4000000000000004</v>
@@ -2424,7 +2434,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2450,7 +2460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2461,7 +2471,7 @@
         <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E47">
         <v>4.0999999999999996</v>
@@ -2476,7 +2486,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2487,7 +2497,7 @@
         <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E48">
         <v>4.5999999999999996</v>
@@ -2502,12 +2512,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>267</v>
       </c>
       <c r="C49" t="s">
         <v>39</v>
@@ -2533,7 +2543,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
         <v>82</v>
@@ -2554,12 +2564,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51" t="s">
         <v>33</v>
@@ -2580,7 +2590,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2606,18 +2616,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
         <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E53">
         <v>4.5</v>
@@ -2632,18 +2642,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C54" t="s">
         <v>82</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E54">
         <v>4.5999999999999996</v>
@@ -2658,7 +2668,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2684,12 +2694,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
         <v>33</v>
@@ -2710,12 +2720,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
         <v>70</v>
@@ -2736,12 +2746,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
         <v>33</v>
@@ -2762,21 +2772,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
       <c r="E59">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2785,15 +2795,15 @@
         <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
         <v>79</v>
@@ -2814,7 +2824,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2840,15 +2850,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
         <v>137</v>
-      </c>
-      <c r="C62" t="s">
-        <v>138</v>
       </c>
       <c r="D62" t="s">
         <v>37</v>
@@ -2866,7 +2876,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2892,15 +2902,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" t="s">
         <v>139</v>
-      </c>
-      <c r="C64" t="s">
-        <v>140</v>
       </c>
       <c r="D64" t="s">
         <v>37</v>
@@ -2923,10 +2933,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" t="s">
         <v>141</v>
-      </c>
-      <c r="C65" t="s">
-        <v>142</v>
       </c>
       <c r="D65" t="s">
         <v>29</v>
@@ -2944,7 +2954,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2970,7 +2980,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2996,12 +3006,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C68" t="s">
         <v>106</v>
@@ -3027,10 +3037,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D69" t="s">
         <v>29</v>
@@ -3053,7 +3063,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
         <v>106</v>
@@ -3074,18 +3084,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" t="s">
         <v>146</v>
       </c>
-      <c r="C71" t="s">
-        <v>147</v>
-      </c>
       <c r="D71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E71">
         <v>4.8</v>
@@ -3100,7 +3110,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3108,10 +3118,10 @@
         <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E72">
         <v>4.9000000000000004</v>
@@ -3126,18 +3136,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="s">
         <v>149</v>
       </c>
-      <c r="C73" t="s">
-        <v>150</v>
-      </c>
       <c r="D73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E73">
         <v>4.8</v>
@@ -3152,18 +3162,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="s">
         <v>151</v>
       </c>
-      <c r="C74" t="s">
-        <v>152</v>
-      </c>
       <c r="D74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E74">
         <v>4.7</v>
@@ -3178,18 +3188,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" t="s">
         <v>153</v>
       </c>
-      <c r="C75" t="s">
-        <v>154</v>
-      </c>
       <c r="D75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E75">
         <v>4.5999999999999996</v>
@@ -3204,18 +3214,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
         <v>106</v>
       </c>
       <c r="D76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E76">
         <v>4.5</v>
@@ -3230,12 +3240,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
         <v>33</v>
@@ -3256,15 +3266,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" t="s">
         <v>157</v>
-      </c>
-      <c r="C78" t="s">
-        <v>158</v>
       </c>
       <c r="D78" t="s">
         <v>41</v>
@@ -3282,15 +3292,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D79" t="s">
         <v>41</v>
@@ -3308,7 +3318,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3334,15 +3344,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" t="s">
         <v>160</v>
-      </c>
-      <c r="C81" t="s">
-        <v>161</v>
       </c>
       <c r="D81" t="s">
         <v>41</v>
@@ -3360,12 +3370,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
         <v>86</v>
@@ -3386,12 +3396,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C83" t="s">
         <v>39</v>
@@ -3412,15 +3422,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D84" t="s">
         <v>41</v>
@@ -3438,18 +3448,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" t="s">
         <v>165</v>
       </c>
-      <c r="C85" t="s">
-        <v>166</v>
-      </c>
       <c r="D85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E85">
         <v>4.2</v>
@@ -3464,15 +3474,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" t="s">
         <v>167</v>
-      </c>
-      <c r="C86" t="s">
-        <v>168</v>
       </c>
       <c r="D86" t="s">
         <v>41</v>
@@ -3502,7 +3512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF82C6-D54D-4741-87E8-046647D0E08D}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3529,10 +3539,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3540,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -3549,7 +3559,7 @@
         <v>4.5</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F2">
         <v>5000</v>
@@ -3560,16 +3570,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D3">
         <v>4.5999999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F3">
         <v>6000</v>
@@ -3580,16 +3590,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4">
         <v>4.3</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F4">
         <v>7000</v>
@@ -3600,16 +3610,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D5">
         <v>4.4000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F5">
         <v>8000</v>
@@ -3620,16 +3630,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
         <v>170</v>
-      </c>
-      <c r="C6" t="s">
-        <v>171</v>
       </c>
       <c r="D6">
         <v>4.5</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F6">
         <v>7000</v>
@@ -3640,7 +3650,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -3649,7 +3659,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7">
         <v>10000</v>
@@ -3660,16 +3670,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D8">
         <v>4.7</v>
       </c>
       <c r="E8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8">
         <v>9000</v>
@@ -3680,16 +3690,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D9">
         <v>4.3</v>
       </c>
       <c r="E9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F9">
         <v>8000</v>
@@ -3700,16 +3710,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D10">
         <v>4.2</v>
       </c>
       <c r="E10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F10">
         <v>7500</v>
@@ -3720,16 +3730,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D11">
         <v>4.4000000000000004</v>
       </c>
       <c r="E11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F11">
         <v>7000</v>
@@ -3740,16 +3750,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12">
         <v>4.2</v>
       </c>
       <c r="E12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F12">
         <v>7500</v>
@@ -3760,16 +3770,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13">
         <v>4.0999999999999996</v>
       </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F13">
         <v>7000</v>
@@ -3780,7 +3790,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -3789,7 +3799,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F14">
         <v>6500</v>
@@ -3800,7 +3810,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -3809,7 +3819,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F15">
         <v>6500</v>
@@ -3820,16 +3830,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D16">
         <v>4.3</v>
       </c>
       <c r="E16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F16">
         <v>8000</v>
@@ -3840,16 +3850,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17">
         <v>3.9</v>
       </c>
       <c r="E17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F17">
         <v>6000</v>
@@ -3860,16 +3870,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D18">
         <v>4.0999999999999996</v>
       </c>
       <c r="E18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F18">
         <v>7000</v>
@@ -3880,16 +3890,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D19">
         <v>4.2</v>
       </c>
       <c r="E19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F19">
         <v>7500</v>
@@ -3900,16 +3910,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D20">
         <v>4.3</v>
       </c>
       <c r="E20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F20">
         <v>7500</v>
@@ -3920,7 +3930,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -3929,7 +3939,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F21">
         <v>7000</v>
@@ -3940,7 +3950,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -3949,7 +3959,7 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F22">
         <v>7000</v>
@@ -3960,16 +3970,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D23">
         <v>4.5</v>
       </c>
       <c r="E23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F23">
         <v>8500</v>
@@ -3980,16 +3990,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D24">
         <v>4.5999999999999996</v>
       </c>
       <c r="E24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F24">
         <v>9000</v>
@@ -4000,16 +4010,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D25">
         <v>4.2</v>
       </c>
       <c r="E25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F25">
         <v>7500</v>
@@ -4020,16 +4030,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D26">
         <v>4.0999999999999996</v>
       </c>
       <c r="E26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F26">
         <v>7000</v>
@@ -4040,16 +4050,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F27">
         <v>6500</v>
@@ -4060,7 +4070,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
@@ -4069,7 +4079,7 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F28">
         <v>6500</v>
@@ -4080,7 +4090,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
@@ -4089,7 +4099,7 @@
         <v>3.9</v>
       </c>
       <c r="E29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F29">
         <v>6000</v>
@@ -4100,7 +4110,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
@@ -4109,7 +4119,7 @@
         <v>4.7</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F30">
         <v>9500</v>
@@ -4120,7 +4130,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
@@ -4129,7 +4139,7 @@
         <v>4.7</v>
       </c>
       <c r="E31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F31">
         <v>9500</v>
@@ -4140,16 +4150,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D32">
         <v>3.8</v>
       </c>
       <c r="E32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F32">
         <v>5500</v>
@@ -4160,7 +4170,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
@@ -4169,7 +4179,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F33">
         <v>9000</v>
@@ -4180,7 +4190,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
@@ -4189,7 +4199,7 @@
         <v>4.5</v>
       </c>
       <c r="E34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F34">
         <v>8500</v>
@@ -4200,7 +4210,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
@@ -4209,7 +4219,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F35">
         <v>9000</v>
@@ -4220,7 +4230,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
@@ -4229,7 +4239,7 @@
         <v>4.3</v>
       </c>
       <c r="E36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F36">
         <v>8000</v>
@@ -4240,16 +4250,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D37">
         <v>4.0999999999999996</v>
       </c>
       <c r="E37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F37">
         <v>7000</v>
@@ -4260,16 +4270,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D38">
         <v>4.4000000000000004</v>
       </c>
       <c r="E38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F38">
         <v>8500</v>
@@ -4280,16 +4290,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D39">
         <v>4.3</v>
       </c>
       <c r="E39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F39">
         <v>8000</v>
@@ -4300,7 +4310,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C40" t="s">
         <v>25</v>
@@ -4309,7 +4319,7 @@
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F40">
         <v>7000</v>
@@ -4320,16 +4330,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D41">
         <v>4.2</v>
       </c>
       <c r="E41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F41">
         <v>7500</v>
@@ -4340,16 +4350,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D42">
         <v>4.5</v>
       </c>
       <c r="E42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F42">
         <v>8500</v>
@@ -4360,16 +4370,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D43">
         <v>4.3</v>
       </c>
       <c r="E43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F43">
         <v>8000</v>
@@ -4380,7 +4390,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C44" t="s">
         <v>25</v>
@@ -4389,7 +4399,7 @@
         <v>4.2</v>
       </c>
       <c r="E44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F44">
         <v>7500</v>
@@ -4400,16 +4410,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D45">
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F45">
         <v>6500</v>
@@ -4420,16 +4430,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D46">
         <v>4.0999999999999996</v>
       </c>
       <c r="E46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F46">
         <v>7000</v>
@@ -4440,16 +4450,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D47">
         <v>4.4000000000000004</v>
       </c>
       <c r="E47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F47">
         <v>8500</v>
@@ -4460,16 +4470,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D48">
         <v>4.0999999999999996</v>
       </c>
       <c r="E48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F48">
         <v>7000</v>
@@ -4480,16 +4490,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D49">
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F49">
         <v>6500</v>
@@ -4500,7 +4510,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C50" t="s">
         <v>25</v>
@@ -4509,7 +4519,7 @@
         <v>4.2</v>
       </c>
       <c r="E50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F50">
         <v>7500</v>
@@ -4520,16 +4530,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D51">
         <v>4.5</v>
       </c>
       <c r="E51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F51">
         <v>8500</v>
@@ -4540,16 +4550,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F52">
         <v>6500</v>
@@ -4560,16 +4570,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D53">
         <v>4.3</v>
       </c>
       <c r="E53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F53">
         <v>8000</v>
@@ -4580,16 +4590,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D54">
         <v>4.3</v>
       </c>
       <c r="E54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F54">
         <v>8000</v>
@@ -4600,16 +4610,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D55">
         <v>4.5999999999999996</v>
       </c>
       <c r="E55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F55">
         <v>9000</v>
@@ -4620,16 +4630,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D56">
         <v>4.4000000000000004</v>
       </c>
       <c r="E56" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F56">
         <v>8500</v>
@@ -4640,16 +4650,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D57">
         <v>4.5</v>
       </c>
       <c r="E57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F57">
         <v>8500</v>
@@ -4660,7 +4670,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C58" t="s">
         <v>25</v>
@@ -4669,7 +4679,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F58">
         <v>7000</v>
@@ -4680,7 +4690,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C59" t="s">
         <v>29</v>
@@ -4689,7 +4699,7 @@
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F59">
         <v>6500</v>
@@ -4700,7 +4710,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C60" t="s">
         <v>29</v>
@@ -4709,7 +4719,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F60">
         <v>7000</v>
@@ -4720,7 +4730,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C61" t="s">
         <v>25</v>
@@ -4729,7 +4739,7 @@
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F61">
         <v>6500</v>
@@ -4740,7 +4750,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C62" t="s">
         <v>25</v>
@@ -4749,7 +4759,7 @@
         <v>4.2</v>
       </c>
       <c r="E62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F62">
         <v>7500</v>
@@ -4760,7 +4770,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C63" t="s">
         <v>25</v>
@@ -4769,7 +4779,7 @@
         <v>4.3</v>
       </c>
       <c r="E63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F63">
         <v>8000</v>
@@ -4780,16 +4790,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C64" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D64">
         <v>4.2</v>
       </c>
       <c r="E64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F64">
         <v>7500</v>
@@ -4800,7 +4810,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C65" t="s">
         <v>71</v>
@@ -4809,7 +4819,7 @@
         <v>3.9</v>
       </c>
       <c r="E65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F65">
         <v>6000</v>
@@ -4820,16 +4830,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D66">
         <v>4.0999999999999996</v>
       </c>
       <c r="E66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F66">
         <v>7000</v>
@@ -4840,7 +4850,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
@@ -4849,7 +4859,7 @@
         <v>4.2</v>
       </c>
       <c r="E67" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F67">
         <v>7500</v>
@@ -4860,7 +4870,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C68" t="s">
         <v>25</v>
@@ -4869,7 +4879,7 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F68">
         <v>7000</v>
@@ -4880,16 +4890,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C69" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D69">
         <v>4.0999999999999996</v>
       </c>
       <c r="E69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F69">
         <v>7000</v>
@@ -4900,16 +4910,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D70">
         <v>4.4000000000000004</v>
       </c>
       <c r="E70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F70">
         <v>8500</v>
@@ -4920,16 +4930,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D71">
         <v>4.2</v>
       </c>
       <c r="E71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F71">
         <v>7500</v>
@@ -4940,7 +4950,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C72" t="s">
         <v>25</v>
@@ -4949,7 +4959,7 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F72">
         <v>7000</v>
@@ -4960,7 +4970,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s">
         <v>25</v>
@@ -4969,7 +4979,7 @@
         <v>4.3</v>
       </c>
       <c r="E73" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F73">
         <v>8000</v>
@@ -4980,7 +4990,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C74" t="s">
         <v>25</v>
@@ -4989,7 +4999,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F74">
         <v>7000</v>
@@ -5000,7 +5010,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C75" t="s">
         <v>25</v>
@@ -5009,7 +5019,7 @@
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F75">
         <v>6500</v>
@@ -5020,7 +5030,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -5040,16 +5050,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D77">
         <v>4.4000000000000004</v>
       </c>
       <c r="E77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F77">
         <v>8500</v>
@@ -5060,16 +5070,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D78">
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F78">
         <v>7000</v>
@@ -5080,16 +5090,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C79" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D79">
         <v>4.0999999999999996</v>
       </c>
       <c r="E79" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F79">
         <v>7500</v>
@@ -5100,16 +5110,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C80" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D80">
         <v>4.3</v>
       </c>
       <c r="E80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F80">
         <v>8000</v>
@@ -5120,16 +5130,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D81">
         <v>4.2</v>
       </c>
       <c r="E81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F81">
         <v>7500</v>

--- a/Report/Book1.xlsx
+++ b/Report/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Major Project\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CA02A2-4AD4-4AB3-A27F-376442DD4F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53669C4-B593-422A-8A86-A43589BA0CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{526394E1-51BD-4BAD-8276-31717289FB82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{526394E1-51BD-4BAD-8276-31717289FB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="267">
   <si>
     <t>Location</t>
   </si>
@@ -740,9 +740,6 @@
   </si>
   <si>
     <t>Chilla Wildlife Sanctuary</t>
-  </si>
-  <si>
-    <t>Rajpur Road</t>
   </si>
   <si>
     <t>Jharipani Falls</t>
@@ -919,8 +916,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C21D1940-61C6-44DA-A69D-7EC0CEA6EF55}" name="Table1" displayName="Table1" ref="A1:F82" totalsRowShown="0">
-  <autoFilter ref="A1:F82" xr:uid="{C21D1940-61C6-44DA-A69D-7EC0CEA6EF55}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C21D1940-61C6-44DA-A69D-7EC0CEA6EF55}" name="Table1" displayName="Table1" ref="A1:F80" totalsRowShown="0">
+  <autoFilter ref="A1:F80" xr:uid="{C21D1940-61C6-44DA-A69D-7EC0CEA6EF55}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0C5F86ED-09FB-4D7C-B958-3C7C53A22F7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0B8F1F5F-77ED-4DB9-8B86-92E945A92E93}" name="Tourist Spot Name" dataDxfId="0"/>
@@ -1232,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B56446-6CE4-42A1-876B-A2000D53FD03}">
   <dimension ref="A1:U86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
@@ -1376,22 +1373,22 @@
         <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q5" t="s">
+        <v>262</v>
+      </c>
+      <c r="R5" t="s">
         <v>263</v>
       </c>
-      <c r="R5" t="s">
-        <v>264</v>
-      </c>
       <c r="S5" t="s">
+        <v>259</v>
+      </c>
+      <c r="T5" t="s">
+        <v>261</v>
+      </c>
+      <c r="U5" t="s">
         <v>260</v>
-      </c>
-      <c r="T5" t="s">
-        <v>262</v>
-      </c>
-      <c r="U5" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -1821,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -1873,7 +1870,7 @@
         <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E24">
         <v>4.2</v>
@@ -1951,7 +1948,7 @@
         <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E27">
         <v>4.4000000000000004</v>
@@ -2029,7 +2026,7 @@
         <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E30">
         <v>4.2</v>
@@ -2419,7 +2416,7 @@
         <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E45">
         <v>4.4000000000000004</v>
@@ -2471,7 +2468,7 @@
         <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E47">
         <v>4.0999999999999996</v>
@@ -2497,7 +2494,7 @@
         <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E48">
         <v>4.5999999999999996</v>
@@ -2517,7 +2514,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C49" t="s">
         <v>39</v>
@@ -2627,7 +2624,7 @@
         <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E53">
         <v>4.5</v>
@@ -2653,7 +2650,7 @@
         <v>82</v>
       </c>
       <c r="D54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E54">
         <v>4.5999999999999996</v>
@@ -3095,7 +3092,7 @@
         <v>146</v>
       </c>
       <c r="D71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E71">
         <v>4.8</v>
@@ -3510,10 +3507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF82C6-D54D-4741-87E8-046647D0E08D}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3542,7 +3539,7 @@
         <v>168</v>
       </c>
       <c r="F1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3573,13 +3570,13 @@
         <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D3">
         <v>4.5999999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F3">
         <v>6000</v>
@@ -3599,7 +3596,7 @@
         <v>4.3</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F4">
         <v>7000</v>
@@ -3613,13 +3610,13 @@
         <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D5">
         <v>4.4000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F5">
         <v>8000</v>
@@ -3639,7 +3636,7 @@
         <v>4.5</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F6">
         <v>7000</v>
@@ -3659,7 +3656,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F7">
         <v>10000</v>
@@ -3673,13 +3670,13 @@
         <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D8">
         <v>4.7</v>
       </c>
       <c r="E8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F8">
         <v>9000</v>
@@ -3699,7 +3696,7 @@
         <v>4.3</v>
       </c>
       <c r="E9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F9">
         <v>8000</v>
@@ -3719,7 +3716,7 @@
         <v>4.2</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F10">
         <v>7500</v>
@@ -3739,7 +3736,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F11">
         <v>7000</v>
@@ -3759,7 +3756,7 @@
         <v>4.2</v>
       </c>
       <c r="E12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F12">
         <v>7500</v>
@@ -3779,7 +3776,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F13">
         <v>7000</v>
@@ -3833,13 +3830,13 @@
         <v>223</v>
       </c>
       <c r="C16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D16">
         <v>4.3</v>
       </c>
       <c r="E16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F16">
         <v>8000</v>
@@ -3859,7 +3856,7 @@
         <v>3.9</v>
       </c>
       <c r="E17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F17">
         <v>6000</v>
@@ -3873,13 +3870,13 @@
         <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D18">
         <v>4.0999999999999996</v>
       </c>
       <c r="E18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F18">
         <v>7000</v>
@@ -3899,7 +3896,7 @@
         <v>4.2</v>
       </c>
       <c r="E19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F19">
         <v>7500</v>
@@ -3919,7 +3916,7 @@
         <v>4.3</v>
       </c>
       <c r="E20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F20">
         <v>7500</v>
@@ -3973,13 +3970,13 @@
         <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D23">
         <v>4.5</v>
       </c>
       <c r="E23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F23">
         <v>8500</v>
@@ -3993,13 +3990,13 @@
         <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D24">
         <v>4.5999999999999996</v>
       </c>
       <c r="E24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F24">
         <v>9000</v>
@@ -4019,7 +4016,7 @@
         <v>4.2</v>
       </c>
       <c r="E25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F25">
         <v>7500</v>
@@ -4039,7 +4036,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F26">
         <v>7000</v>
@@ -4059,7 +4056,7 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F27">
         <v>6500</v>
@@ -4159,7 +4156,7 @@
         <v>3.8</v>
       </c>
       <c r="E32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F32">
         <v>5500</v>
@@ -4253,13 +4250,13 @@
         <v>189</v>
       </c>
       <c r="C37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D37">
         <v>4.0999999999999996</v>
       </c>
       <c r="E37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F37">
         <v>7000</v>
@@ -4273,13 +4270,13 @@
         <v>230</v>
       </c>
       <c r="C38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D38">
         <v>4.4000000000000004</v>
       </c>
       <c r="E38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F38">
         <v>8500</v>
@@ -4299,7 +4296,7 @@
         <v>4.3</v>
       </c>
       <c r="E39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F39">
         <v>8000</v>
@@ -4333,13 +4330,13 @@
         <v>190</v>
       </c>
       <c r="C41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D41">
         <v>4.2</v>
       </c>
       <c r="E41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F41">
         <v>7500</v>
@@ -4353,13 +4350,13 @@
         <v>192</v>
       </c>
       <c r="C42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D42">
         <v>4.5</v>
       </c>
       <c r="E42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F42">
         <v>8500</v>
@@ -4373,13 +4370,13 @@
         <v>196</v>
       </c>
       <c r="C43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D43">
         <v>4.3</v>
       </c>
       <c r="E43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F43">
         <v>8000</v>
@@ -4419,7 +4416,7 @@
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F45">
         <v>6500</v>
@@ -4439,7 +4436,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F46">
         <v>7000</v>
@@ -4453,13 +4450,13 @@
         <v>218</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D47">
         <v>4.4000000000000004</v>
       </c>
       <c r="E47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F47">
         <v>8500</v>
@@ -4473,13 +4470,13 @@
         <v>198</v>
       </c>
       <c r="C48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D48">
         <v>4.0999999999999996</v>
       </c>
       <c r="E48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F48">
         <v>7000</v>
@@ -4493,13 +4490,13 @@
         <v>231</v>
       </c>
       <c r="C49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D49">
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F49">
         <v>6500</v>
@@ -4533,13 +4530,13 @@
         <v>232</v>
       </c>
       <c r="C51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D51">
         <v>4.5</v>
       </c>
       <c r="E51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F51">
         <v>8500</v>
@@ -4553,13 +4550,13 @@
         <v>213</v>
       </c>
       <c r="C52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F52">
         <v>6500</v>
@@ -4579,7 +4576,7 @@
         <v>4.3</v>
       </c>
       <c r="E53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F53">
         <v>8000</v>
@@ -4593,13 +4590,13 @@
         <v>233</v>
       </c>
       <c r="C54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D54">
         <v>4.3</v>
       </c>
       <c r="E54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F54">
         <v>8000</v>
@@ -4613,13 +4610,13 @@
         <v>234</v>
       </c>
       <c r="C55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D55">
         <v>4.5999999999999996</v>
       </c>
       <c r="E55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F55">
         <v>9000</v>
@@ -4633,13 +4630,13 @@
         <v>235</v>
       </c>
       <c r="C56" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D56">
         <v>4.4000000000000004</v>
       </c>
       <c r="E56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F56">
         <v>8500</v>
@@ -4653,13 +4650,13 @@
         <v>206</v>
       </c>
       <c r="C57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D57">
         <v>4.5</v>
       </c>
       <c r="E57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F57">
         <v>8500</v>
@@ -4699,7 +4696,7 @@
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F59">
         <v>6500</v>
@@ -4719,7 +4716,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F60">
         <v>7000</v>
@@ -4759,7 +4756,7 @@
         <v>4.2</v>
       </c>
       <c r="E62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F62">
         <v>7500</v>
@@ -4793,13 +4790,13 @@
         <v>212</v>
       </c>
       <c r="C64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D64">
         <v>4.2</v>
       </c>
       <c r="E64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F64">
         <v>7500</v>
@@ -4813,16 +4810,16 @@
         <v>238</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c r="D65">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E65" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F65">
-        <v>6000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -4833,16 +4830,16 @@
         <v>239</v>
       </c>
       <c r="C66" t="s">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="D66">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="E66" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F66">
-        <v>7000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4850,19 +4847,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D67">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="F67">
-        <v>7500</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4870,16 +4867,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E68" t="s">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="F68">
         <v>7000</v>
@@ -4890,19 +4887,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="C69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D69">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E69" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F69">
-        <v>7000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -4910,19 +4907,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="C70" t="s">
+        <v>254</v>
+      </c>
+      <c r="D70">
+        <v>4.2</v>
+      </c>
+      <c r="E70" t="s">
         <v>255</v>
       </c>
-      <c r="D70">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E70" t="s">
-        <v>254</v>
-      </c>
       <c r="F70">
-        <v>8500</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -4930,19 +4927,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="C71" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="D71">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>256</v>
+        <v>173</v>
       </c>
       <c r="F71">
-        <v>7500</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4950,42 +4947,42 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="C72" t="s">
         <v>25</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="E72" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="F72">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="C73" t="s">
         <v>25</v>
       </c>
       <c r="D73">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E73" t="s">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="F73">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4996,13 +4993,13 @@
         <v>25</v>
       </c>
       <c r="D74">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="E74" t="s">
         <v>173</v>
       </c>
       <c r="F74">
-        <v>7000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -5010,19 +5007,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="E75" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="F75">
-        <v>6500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -5030,19 +5027,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
       <c r="D76">
-        <v>3.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="F76">
-        <v>6000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -5050,19 +5047,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="C77" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D77">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F77">
-        <v>8500</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -5070,19 +5067,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="C78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E78" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F78">
-        <v>7000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -5093,16 +5090,16 @@
         <v>246</v>
       </c>
       <c r="C79" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D79">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="E79" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F79">
-        <v>7500</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -5113,35 +5110,15 @@
         <v>247</v>
       </c>
       <c r="C80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D80">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="E80" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F80">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C81" t="s">
-        <v>252</v>
-      </c>
-      <c r="D81">
-        <v>4.2</v>
-      </c>
-      <c r="E81" t="s">
-        <v>251</v>
-      </c>
-      <c r="F81">
         <v>7500</v>
       </c>
     </row>
